--- a/Trade tracking.xlsx
+++ b/Trade tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carbon_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C6FD5-701C-4C00-927C-AB76EA294685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C924B-520E-465D-8CB5-C41AD6F6D98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B914D543-2248-43F6-AF53-C4900C919E6D}"/>
+    <workbookView xWindow="28845" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B914D543-2248-43F6-AF53-C4900C919E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="EU" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>VWAP</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -460,15 +463,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -476,82 +472,7 @@
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -626,16 +547,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1036,10 +947,11 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1804072762</v>
+        <v>#N/A Requesting Data...3963955132</v>
         <stp/>
         <stp>BQL|2827286014736805769</stp>
         <tr r="T2" s="3"/>
+        <tr r="T1" s="3"/>
       </tp>
     </main>
   </volType>
@@ -1047,24 +959,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:K40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:K40" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:K40" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{356A589E-520D-44D8-B8D8-274038DD3651}" name="Mkt" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{21345338-A0C6-4AA8-A3B0-368FF72E9E0A}" name="Symbol" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="35" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="34" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{356A589E-520D-44D8-B8D8-274038DD3651}" name="Mkt" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{21345338-A0C6-4AA8-A3B0-368FF72E9E0A}" name="Symbol" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="17" dataCellStyle="Currency">
       <calculatedColumnFormula>$T$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{126A3821-FC48-46ED-AAAD-FF4255608DB9}" name="PnL (local)" dataDxfId="33" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="32" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{126A3821-FC48-46ED-AAAD-FF4255608DB9}" name="PnL (local)" dataDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="15" dataCellStyle="Currency">
       <calculatedColumnFormula>(H2-G2)*F2*$W$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="31" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="14" dataCellStyle="Currency">
       <calculatedColumnFormula>K1+J2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2889,7 +2801,7 @@
         <v>-4890</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" ref="K35:K66" si="4">K34+J35</f>
+        <f t="shared" ref="K35:K61" si="4">K34+J35</f>
         <v>326.00000000002274</v>
       </c>
       <c r="L35">
@@ -4044,7 +3956,7 @@
         <f>F62</f>
         <v>1000</v>
       </c>
-      <c r="S62" s="36">
+      <c r="S62" s="1">
         <f>G62</f>
         <v>76.010000000000005</v>
       </c>
@@ -4104,18 +4016,8 @@
       <c r="S64" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:J61">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:J62">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:J63">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="I2:J63">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4127,10 +4029,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483F930B-A90B-4DE2-AD39-B6A527EDDD6D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J42" sqref="J36:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,8 +4086,9 @@
       <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="37">
-        <v>46.12</v>
+      <c r="T1" s="36" cm="1">
+        <f t="array" ref="T1">_xll.BQL(V2,"px_settle()")</f>
+        <v>48.61</v>
       </c>
       <c r="V1" t="s">
         <v>28</v>
@@ -4232,7 +4135,10 @@
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">_xll.BQL("UKEZ4 Comdty","px_settle()")</f>
-        <v>45.25</v>
+        <v>48.61</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -4444,18 +4350,18 @@
       </c>
       <c r="H8" s="26">
         <f>$T$1</f>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I8" s="25">
         <v>24450.000000000004</v>
       </c>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>77234.999999999956</v>
+        <v>100889.99999999997</v>
       </c>
       <c r="K8" s="28">
         <f>J8</f>
-        <v>77234.999999999956</v>
+        <v>100889.99999999997</v>
       </c>
       <c r="L8">
         <f>F8</f>
@@ -4485,19 +4391,19 @@
         <v>38.1</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" ref="H9:H44" si="1">$T$1</f>
-        <v>46.12</v>
+        <f t="shared" ref="H9:H47" si="1">$T$1</f>
+        <v>48.61</v>
       </c>
       <c r="I9" s="25">
         <v>23900.000000000007</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>76189.999999999956</v>
+        <v>99844.999999999985</v>
       </c>
       <c r="K9" s="28">
         <f>K8+J9</f>
-        <v>153424.99999999991</v>
+        <v>200734.99999999994</v>
       </c>
       <c r="L9">
         <f>L8+F9</f>
@@ -4528,18 +4434,18 @@
       </c>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I10" s="25">
         <v>-26900.000000000015</v>
       </c>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>-81889.999999999971</v>
+        <v>-105545</v>
       </c>
       <c r="K10" s="28">
         <f t="shared" ref="K10:K28" si="2">K9+J10</f>
-        <v>71534.999999999942</v>
+        <v>95189.999999999942</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L28" si="3">L9+F10</f>
@@ -4570,18 +4476,18 @@
       </c>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I11" s="25">
         <v>-11320.000000000007</v>
       </c>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>-33819.999999999993</v>
+        <v>-43282</v>
       </c>
       <c r="K11" s="28">
         <f t="shared" si="2"/>
-        <v>37714.999999999949</v>
+        <v>51907.999999999942</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
@@ -4612,18 +4518,18 @@
       </c>
       <c r="H12" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I12" s="25">
         <v>-4810.0000000000018</v>
       </c>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>-15294.999999999995</v>
+        <v>-20026</v>
       </c>
       <c r="K12" s="28">
         <f t="shared" si="2"/>
-        <v>22419.999999999956</v>
+        <v>31881.999999999942</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
@@ -4654,18 +4560,18 @@
       </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I13" s="25">
         <v>-4740.0000000000018</v>
       </c>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>-15161.999999999995</v>
+        <v>-19892.999999999996</v>
       </c>
       <c r="K13" s="28">
         <f t="shared" si="2"/>
-        <v>7257.9999999999618</v>
+        <v>11988.999999999945</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
@@ -4699,18 +4605,18 @@
       </c>
       <c r="H14" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I14" s="25">
         <v>-4700.0000000000027</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>-15085.999999999996</v>
+        <v>-19817</v>
       </c>
       <c r="K14" s="28">
         <f t="shared" si="2"/>
-        <v>-7828.0000000000346</v>
+        <v>-7828.0000000000546</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
@@ -4754,18 +4660,18 @@
       </c>
       <c r="H15" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I15" s="25">
         <v>-9300.0000000000109</v>
       </c>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>-29982.000000000004</v>
+        <v>-39444.000000000007</v>
       </c>
       <c r="K15" s="28">
         <f t="shared" si="2"/>
-        <v>-37810.000000000036</v>
+        <v>-47272.000000000058</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
@@ -4809,18 +4715,18 @@
       </c>
       <c r="H16" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I16" s="25">
         <v>-8860</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>-29145.999999999978</v>
+        <v>-38607.999999999985</v>
       </c>
       <c r="K16" s="28">
         <f t="shared" si="2"/>
-        <v>-66956.000000000015</v>
+        <v>-85880.000000000044</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
@@ -4864,18 +4770,18 @@
       </c>
       <c r="H17" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I17" s="25">
         <v>-9880.0000000000091</v>
       </c>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>-31084</v>
+        <v>-40546.000000000007</v>
       </c>
       <c r="K17" s="28">
         <f t="shared" si="2"/>
-        <v>-98040.000000000015</v>
+        <v>-126426.00000000006</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
@@ -4919,18 +4825,18 @@
       </c>
       <c r="H18" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I18" s="25">
         <v>5630.0000000000027</v>
       </c>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>16852.999999999996</v>
+        <v>21584</v>
       </c>
       <c r="K18" s="28">
         <f t="shared" si="2"/>
-        <v>-81187.000000000015</v>
+        <v>-104842.00000000006</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
@@ -4974,18 +4880,18 @@
       </c>
       <c r="H19" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I19" s="25">
         <v>5780.0000000000009</v>
       </c>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>17137.999999999993</v>
+        <v>21868.999999999996</v>
       </c>
       <c r="K19" s="28">
         <f t="shared" si="2"/>
-        <v>-64049.000000000022</v>
+        <v>-82973.000000000058</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
@@ -5029,18 +4935,18 @@
       </c>
       <c r="H20" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I20" s="25">
         <v>-10760.000000000005</v>
       </c>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>-32755.999999999993</v>
+        <v>-42218</v>
       </c>
       <c r="K20" s="28">
         <f t="shared" si="2"/>
-        <v>-96805.000000000015</v>
+        <v>-125191.00000000006</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
@@ -5084,18 +4990,18 @@
       </c>
       <c r="H21" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I21" s="25">
         <v>-5180</v>
       </c>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>-15997.999999999989</v>
+        <v>-20728.999999999993</v>
       </c>
       <c r="K21" s="28">
         <f t="shared" si="2"/>
-        <v>-112803</v>
+        <v>-145920.00000000006</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
@@ -5139,18 +5045,18 @@
       </c>
       <c r="H22" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I22" s="25">
         <v>5630.0000000000027</v>
       </c>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>16852.999999999996</v>
+        <v>21584</v>
       </c>
       <c r="K22" s="28">
         <f t="shared" si="2"/>
-        <v>-95950</v>
+        <v>-124336.00000000006</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
@@ -5194,18 +5100,18 @@
       </c>
       <c r="H23" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I23" s="25">
         <v>5780.0000000000009</v>
       </c>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>17137.999999999993</v>
+        <v>21868.999999999996</v>
       </c>
       <c r="K23" s="28">
         <f t="shared" si="2"/>
-        <v>-78812</v>
+        <v>-102467.00000000006</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
@@ -5249,18 +5155,18 @@
       </c>
       <c r="H24" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I24" s="25">
         <v>-4890.0000000000009</v>
       </c>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>-15446.999999999991</v>
+        <v>-20177.999999999996</v>
       </c>
       <c r="K24" s="28">
         <f t="shared" si="2"/>
-        <v>-94258.999999999985</v>
+        <v>-122645.00000000006</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
@@ -5304,18 +5210,18 @@
       </c>
       <c r="H25" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I25" s="25">
         <v>-4650.0000000000055</v>
       </c>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>-14991.000000000002</v>
+        <v>-19722.000000000004</v>
       </c>
       <c r="K25" s="28">
         <f t="shared" si="2"/>
-        <v>-109249.99999999999</v>
+        <v>-142367.00000000006</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
@@ -5359,18 +5265,18 @@
       </c>
       <c r="H26" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I26" s="25">
         <v>-8980.0000000000036</v>
       </c>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>-29373.999999999989</v>
+        <v>-38835.999999999993</v>
       </c>
       <c r="K26" s="28">
         <f t="shared" si="2"/>
-        <v>-138623.99999999997</v>
+        <v>-181203.00000000006</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
@@ -5414,18 +5320,18 @@
       </c>
       <c r="H27" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I27" s="25">
         <v>-6460.0000000000082</v>
       </c>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>-24585.999999999996</v>
+        <v>-34048</v>
       </c>
       <c r="K27" s="28">
         <f t="shared" si="2"/>
-        <v>-163209.99999999997</v>
+        <v>-215251.00000000006</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
@@ -5469,18 +5375,18 @@
       </c>
       <c r="H28" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I28" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>-12767.999999999998</v>
+        <v>-17499</v>
       </c>
       <c r="K28" s="28">
         <f t="shared" si="2"/>
-        <v>-175977.99999999997</v>
+        <v>-232750.00000000006</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
@@ -5524,18 +5430,18 @@
       </c>
       <c r="H29" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I29" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J29" s="27">
         <f t="shared" ref="J29" si="4">(H29-G29)*F29*$W$1</f>
-        <v>-7049.0000000000018</v>
+        <v>-11780.000000000005</v>
       </c>
       <c r="K29" s="28">
         <f t="shared" ref="K29" si="5">K28+J29</f>
-        <v>-183026.99999999997</v>
+        <v>-244530.00000000006</v>
       </c>
       <c r="L29">
         <f t="shared" ref="L29" si="6">L28+F29</f>
@@ -5579,18 +5485,18 @@
       </c>
       <c r="H30" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I30" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J30" s="27">
         <f t="shared" ref="J30" si="7">(H30-G30)*F30*$W$1</f>
-        <v>-6801.9999999999964</v>
+        <v>-11533</v>
       </c>
       <c r="K30" s="28">
         <f t="shared" ref="K30" si="8">K29+J30</f>
-        <v>-189828.99999999997</v>
+        <v>-256063.00000000006</v>
       </c>
       <c r="L30">
         <f t="shared" ref="L30" si="9">L29+F30</f>
@@ -5634,18 +5540,18 @@
       </c>
       <c r="H31" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I31" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J31" s="27">
         <f t="shared" ref="J31" si="10">(H31-G31)*F31*$W$1</f>
-        <v>-7105.99999999999</v>
+        <v>-11836.999999999995</v>
       </c>
       <c r="K31" s="28">
         <f t="shared" ref="K31" si="11">K30+J31</f>
-        <v>-196934.99999999997</v>
+        <v>-267900.00000000006</v>
       </c>
       <c r="L31">
         <f t="shared" ref="L31" si="12">L30+F31</f>
@@ -5689,18 +5595,18 @@
       </c>
       <c r="H32" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I32" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J32" s="27">
         <f t="shared" ref="J32" si="13">(H32-G32)*F32*$W$1</f>
-        <v>-13033.999999999998</v>
+        <v>-22496.000000000007</v>
       </c>
       <c r="K32" s="28">
         <f t="shared" ref="K32" si="14">K31+J32</f>
-        <v>-209968.99999999997</v>
+        <v>-290396.00000000006</v>
       </c>
       <c r="L32">
         <f t="shared" ref="L32" si="15">L31+F32</f>
@@ -5744,18 +5650,18 @@
       </c>
       <c r="H33" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I33" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J33" s="27">
         <f t="shared" ref="J33" si="16">(H33-G33)*F33*$W$1</f>
-        <v>8245.9999999999782</v>
+        <v>17707.999999999985</v>
       </c>
       <c r="K33" s="28">
         <f t="shared" ref="K33" si="17">K32+J33</f>
-        <v>-201723</v>
+        <v>-272688.00000000006</v>
       </c>
       <c r="L33">
         <f t="shared" ref="L33" si="18">L32+F33</f>
@@ -5810,18 +5716,18 @@
       </c>
       <c r="H34" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
+        <v>48.61</v>
       </c>
       <c r="I34" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J34" s="27">
         <f t="shared" ref="J34" si="19">(H34-G34)*F34*$W$1</f>
-        <v>4483.9999999999991</v>
+        <v>9215.0000000000036</v>
       </c>
       <c r="K34" s="28">
         <f t="shared" ref="K34" si="20">K33+J34</f>
-        <v>-197239</v>
+        <v>-263473.00000000006</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34" si="21">L33+F34</f>
@@ -5850,22 +5756,22 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
+      <c r="A35" s="30">
         <v>45435</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35">
         <v>1000</v>
       </c>
       <c r="G35" s="26">
@@ -5873,18 +5779,18 @@
       </c>
       <c r="H35" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I35" s="42">
+        <v>48.61</v>
+      </c>
+      <c r="I35" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J35" s="27">
         <f t="shared" ref="J35:J37" si="22">(H35-G35)*F35*$W$1</f>
-        <v>3458.0000000000005</v>
+        <v>8189.0000000000027</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" ref="K35:K37" si="23">K34+J35</f>
-        <v>-193781</v>
+        <v>-255284.00000000006</v>
       </c>
       <c r="L35">
         <f>L34+F35</f>
@@ -5917,22 +5823,22 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="A36" s="30">
         <v>45440</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36">
         <v>-1000</v>
       </c>
       <c r="G36" s="26">
@@ -5940,18 +5846,18 @@
       </c>
       <c r="H36" s="26">
         <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I36" s="42">
+        <v>48.61</v>
+      </c>
+      <c r="I36" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J36" s="27">
         <f t="shared" si="22"/>
-        <v>-2792.9999999999977</v>
+        <v>-7524.0000000000018</v>
       </c>
       <c r="K36" s="28">
         <f t="shared" si="23"/>
-        <v>-196574</v>
+        <v>-262808.00000000006</v>
       </c>
       <c r="L36">
         <f>L35+F36</f>
@@ -5972,41 +5878,41 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
+      <c r="A37" s="30">
         <v>45440</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37">
         <v>-1000</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="37">
         <v>44.65</v>
       </c>
-      <c r="H37" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I37" s="42">
+      <c r="H37" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I37" s="33">
         <v>-3480.0000000000041</v>
       </c>
-      <c r="J37" s="45">
+      <c r="J37" s="38">
         <f t="shared" si="22"/>
-        <v>-2792.9999999999977</v>
+        <v>-7524.0000000000018</v>
       </c>
       <c r="K37" s="28">
         <f t="shared" si="23"/>
-        <v>-199367</v>
+        <v>-270332.00000000006</v>
       </c>
       <c r="L37">
         <f>L36+F37</f>
@@ -6027,41 +5933,41 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="30">
         <v>45440</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38">
         <v>-1000</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="37">
         <v>44.66</v>
       </c>
-      <c r="H38" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I38" s="42">
+      <c r="H38" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I38" s="33">
         <v>-3480.0000000000041</v>
       </c>
       <c r="J38" s="27">
         <f t="shared" ref="J38:J39" si="24">(H38-G38)*F38*$W$1</f>
-        <v>-2774.0000000000018</v>
+        <v>-7505.0000000000045</v>
       </c>
       <c r="K38" s="28">
         <f t="shared" ref="K38:K39" si="25">K37+J38</f>
-        <v>-202141</v>
+        <v>-277837.00000000006</v>
       </c>
       <c r="L38">
         <f t="shared" ref="L38:L39" si="26">L37+F38</f>
@@ -6083,41 +5989,41 @@
       <c r="U38" s="18"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="30">
         <v>45440</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39">
         <v>-1000</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="37">
         <v>44.61</v>
       </c>
-      <c r="H39" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I39" s="42">
+      <c r="H39" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I39" s="33">
         <v>-3480.0000000000041</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="38">
         <f t="shared" si="24"/>
-        <v>-2868.9999999999959</v>
+        <v>-7600</v>
       </c>
       <c r="K39" s="28">
         <f t="shared" si="25"/>
-        <v>-205010</v>
+        <v>-285437.00000000006</v>
       </c>
       <c r="L39">
         <f t="shared" si="26"/>
@@ -6138,41 +6044,41 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="A40" s="30">
         <v>45440</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40">
         <v>-2000</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="37">
         <v>44.74</v>
       </c>
-      <c r="H40" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I40" s="42">
+      <c r="H40" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I40" s="33">
         <v>-3480.0000000000041</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="38">
         <f t="shared" ref="J40" si="27">(H40-G40)*F40*$W$1</f>
-        <v>-5243.9999999999827</v>
+        <v>-14705.999999999989</v>
       </c>
       <c r="K40" s="28">
         <f t="shared" ref="K40" si="28">K39+J40</f>
-        <v>-210253.99999999997</v>
+        <v>-300143.00000000006</v>
       </c>
       <c r="L40">
         <f t="shared" ref="L40" si="29">L39+F40</f>
@@ -6192,41 +6098,41 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+      <c r="A41" s="30">
         <v>45440</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41">
         <v>2000</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="37">
         <v>45.88</v>
       </c>
-      <c r="H41" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I41" s="42">
+      <c r="H41" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I41" s="33">
         <v>-3480.0000000000041</v>
       </c>
-      <c r="J41" s="45">
+      <c r="J41" s="38">
         <f t="shared" ref="J41:J43" si="30">(H41-G41)*F41*$W$1</f>
-        <v>911.99999999998056</v>
+        <v>10373.999999999987</v>
       </c>
       <c r="K41" s="28">
         <f t="shared" ref="K41:K43" si="31">K40+J41</f>
-        <v>-209342</v>
+        <v>-289769.00000000006</v>
       </c>
       <c r="L41">
         <f t="shared" ref="L41:L43" si="32">L40+F41</f>
@@ -6234,41 +6140,41 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="A42" s="30">
         <v>45440</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42">
         <v>1000</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="37">
         <v>46.13</v>
       </c>
-      <c r="H42" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I42" s="42">
+      <c r="H42" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I42" s="33">
         <v>-3480.0000000000041</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J42" s="38">
         <f t="shared" si="30"/>
-        <v>-19.00000000000972</v>
+        <v>4711.9999999999936</v>
       </c>
       <c r="K42" s="28">
         <f t="shared" si="31"/>
-        <v>-209361</v>
+        <v>-285057.00000000006</v>
       </c>
       <c r="L42">
         <f t="shared" si="32"/>
@@ -6276,41 +6182,41 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="30">
         <v>45440</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43">
         <v>2000</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="37">
         <v>46.35</v>
       </c>
-      <c r="H43" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I43" s="42">
+      <c r="H43" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I43" s="33">
         <v>-3480.0000000000041</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="38">
         <f t="shared" si="30"/>
-        <v>-874.00000000001512</v>
+        <v>8587.9999999999927</v>
       </c>
       <c r="K43" s="28">
         <f t="shared" si="31"/>
-        <v>-210235.00000000003</v>
+        <v>-276469.00000000006</v>
       </c>
       <c r="L43">
         <f t="shared" si="32"/>
@@ -6318,137 +6224,208 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+      <c r="A44" s="30">
         <v>45440</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44">
         <v>1000</v>
       </c>
-      <c r="G44" s="43">
+      <c r="G44" s="37">
         <v>46.65</v>
       </c>
-      <c r="H44" s="43">
-        <f t="shared" si="1"/>
-        <v>46.12</v>
-      </c>
-      <c r="I44" s="42">
+      <c r="H44" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I44" s="33">
         <v>-3480.0000000000041</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="38">
         <f t="shared" ref="J44" si="33">(H44-G44)*F44*$W$1</f>
-        <v>-1007.0000000000022</v>
+        <v>3724.0000000000014</v>
       </c>
       <c r="K44" s="28">
         <f t="shared" ref="K44" si="34">K43+J44</f>
-        <v>-211242.00000000003</v>
+        <v>-272745.00000000006</v>
       </c>
       <c r="L44">
         <f t="shared" ref="L44" si="35">L43+F44</f>
         <v>-13000</v>
       </c>
     </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>45442</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="37">
+        <v>46.1</v>
+      </c>
+      <c r="H45" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I45" s="33">
+        <v>-3480.0000000000041</v>
+      </c>
+      <c r="J45" s="38">
+        <f t="shared" ref="J45" si="36">(H45-G45)*F45*$W$1</f>
+        <v>9537.9999999999927</v>
+      </c>
+      <c r="K45" s="28">
+        <f t="shared" ref="K45" si="37">K44+J45</f>
+        <v>-263207.00000000006</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ref="L45" si="38">L44+F45</f>
+        <v>-11000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>45442</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="37">
+        <v>46.42</v>
+      </c>
+      <c r="H46" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I46" s="33">
+        <v>-3480.0000000000041</v>
+      </c>
+      <c r="J46" s="38">
+        <f t="shared" ref="J46" si="39">(H46-G46)*F46*$W$1</f>
+        <v>4160.9999999999955</v>
+      </c>
+      <c r="K46" s="28">
+        <f>K45+J46</f>
+        <v>-259046.00000000006</v>
+      </c>
+      <c r="L46">
+        <f>L45+F46</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>45443</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="37">
+        <v>46.67</v>
+      </c>
+      <c r="H47" s="37">
+        <f t="shared" si="1"/>
+        <v>48.61</v>
+      </c>
+      <c r="I47" s="33">
+        <v>-3480.0000000000041</v>
+      </c>
+      <c r="J47" s="38">
+        <f t="shared" ref="J47" si="40">(H47-G47)*F47*$W$1</f>
+        <v>7371.9999999999909</v>
+      </c>
+      <c r="K47" s="28">
+        <f>K46+J47</f>
+        <v>-251674.00000000006</v>
+      </c>
+      <c r="L47">
+        <f>L46+F47</f>
+        <v>-8000</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E44">
-    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="Buy">
+  <conditionalFormatting sqref="E2:E47">
+    <cfRule type="containsText" dxfId="12" priority="38" operator="containsText" text="Buy">
       <formula>NOT(ISERROR(SEARCH("Buy",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="Sell">
+    <cfRule type="containsText" dxfId="11" priority="39" operator="containsText" text="Sell">
       <formula>NOT(ISERROR(SEARCH("Sell",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I16">
-    <cfRule type="cellIs" dxfId="25" priority="133" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I44 K10:K44">
-    <cfRule type="cellIs" dxfId="24" priority="143" operator="lessThan">
+  <conditionalFormatting sqref="I10:I47 K10:K47">
+    <cfRule type="cellIs" dxfId="9" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K40">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K37">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="J41:K45">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K39">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="J46:K46">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K39">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:K40">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K43">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K43">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K43">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:K43">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:K44">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:K44">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:K44">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:K44">
+  <conditionalFormatting sqref="J47:K47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6464,19 +6441,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26561823-222B-44E9-93BA-7150D64E7CA7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O6"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6507,14 +6484,17 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="K1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="20">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45418</v>
       </c>
@@ -6537,22 +6517,26 @@
         <v>39.450000000000003</v>
       </c>
       <c r="H2" s="9">
-        <f>$O$1</f>
-        <v>40</v>
+        <f>$P$1</f>
+        <v>39.25</v>
       </c>
       <c r="I2" s="9">
         <v>1099.9999999999943</v>
       </c>
       <c r="J2" s="10">
         <f>(H2-G2)*F2*1.5</f>
-        <v>1649.9999999999914</v>
-      </c>
-      <c r="K2">
+        <v>-600.00000000000853</v>
+      </c>
+      <c r="K2" s="21">
+        <f>J2</f>
+        <v>-600.00000000000853</v>
+      </c>
+      <c r="L2">
         <f>F2</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>45419</v>
       </c>
@@ -6575,22 +6559,26 @@
         <v>40.1</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H6" si="0">$O$1</f>
-        <v>40</v>
+        <f t="shared" ref="H3:H7" si="0">$P$1</f>
+        <v>39.25</v>
       </c>
       <c r="I3" s="12">
         <v>-243439790.16897666</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J6" si="1">(H3-G3)*F3*1.5</f>
-        <v>-300.00000000000426</v>
-      </c>
-      <c r="K3">
-        <f>K2+F3</f>
+        <f>(H3-G3)*F3*1.5</f>
+        <v>-2550.0000000000041</v>
+      </c>
+      <c r="K3" s="21">
+        <f>K2+J3</f>
+        <v>-3150.0000000000127</v>
+      </c>
+      <c r="L3">
+        <f>L2+F3</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45419</v>
       </c>
@@ -6614,21 +6602,25 @@
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39.25</v>
       </c>
       <c r="I4" s="9">
         <v>-243439490.16897666</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" si="1"/>
-        <v>149.99999999999147</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K6" si="2">K3+F4</f>
+        <f t="shared" ref="J4:J6" si="1">(H4-G4)*F4*1.5</f>
+        <v>-2100.0000000000086</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:K7" si="2">K3+J4</f>
+        <v>-5250.0000000000218</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="3">L3+F4</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>45422</v>
       </c>
@@ -6652,21 +6644,25 @@
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39.25</v>
       </c>
       <c r="I5" s="12">
         <v>-121719545.08448833</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="K5">
+        <v>-750</v>
+      </c>
+      <c r="K5" s="21">
         <f t="shared" si="2"/>
+        <v>-6000.0000000000218</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45422</v>
       </c>
@@ -6690,27 +6686,82 @@
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39.25</v>
       </c>
       <c r="I6" s="9">
         <v>-121719215.08448833</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>869.9999999999975</v>
-      </c>
-      <c r="K6">
+        <v>-255.00000000000256</v>
+      </c>
+      <c r="K6" s="21">
         <f t="shared" si="2"/>
+        <v>-6255.0000000000246</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f>SUMPRODUCT(F2:F6,G2:G6)/SUM(F2:F6)</f>
         <v>39.771250000000002</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>45442</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>38.75</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>39.25</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-121719215.08448833</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7" si="4">(H7-G7)*F7*1.5</f>
+        <v>2250</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="2"/>
+        <v>-4005.0000000000246</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="5">L6+F7</f>
+        <v>11000</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUMPRODUCT(F3:F7,G3:G7)/SUM(F3:F7)</f>
+        <v>39.502222222222223</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:J6">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="I2:K7">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K7">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6990,7 +7041,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7004,8 +7055,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7222,23 +7273,46 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="8">
+        <v>45442</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>48.5</v>
+      </c>
+      <c r="H6" s="9">
+        <f>$O$1</f>
+        <v>45.5</v>
+      </c>
+      <c r="I6" s="10">
+        <f>(H6-G6)*F6*0.9</f>
+        <v>-13500</v>
+      </c>
+      <c r="J6" s="21">
+        <f>J5+I6</f>
+        <v>-15525.000000000013</v>
+      </c>
       <c r="K6">
-        <f t="shared" ref="K5:K7" si="0">K5+F6</f>
-        <v>10000</v>
+        <f>K5+F6</f>
+        <v>15000</v>
       </c>
       <c r="L6" s="1">
         <f>SUMPRODUCT(F$2:F6,G$2:G6)/SUM(F$2:F6)</f>
-        <v>45.725000000000001</v>
+        <v>46.65</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7253,12 +7327,12 @@
       <c r="I7" s="10"/>
       <c r="J7" s="21"/>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>10000</v>
+        <f t="shared" ref="K7" si="0">K6+F7</f>
+        <v>15000</v>
       </c>
       <c r="L7" s="1">
         <f>SUMPRODUCT(F$2:F7,G$2:G7)/SUM(F$2:F7)</f>
-        <v>45.725000000000001</v>
+        <v>46.65</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7276,7 +7350,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7447,7 +7521,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trade tracking.xlsx
+++ b/Trade tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carbon_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045FAD5-68CB-4E4F-9E69-779E0DEAF2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A936C-FA9B-4407-9082-E8A748856081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B914D543-2248-43F6-AF53-C4900C919E6D}"/>
+    <workbookView xWindow="28740" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B914D543-2248-43F6-AF53-C4900C919E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="EU" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -516,7 +516,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,13 +583,23 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -950,13 +960,15 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2440549251</v>
+        <v>#N/A Requesting Data...4237918006</v>
         <stp/>
         <stp>BQL|13971283072816375479</stp>
         <tr r="Z2" s="2"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
         <stp/>
         <stp>BDP|1633375409542931071|22</stp>
         <stp>MZBZ4 Comdty</stp>
@@ -965,11 +977,18 @@
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
+      <tp>
+        <v>49.33</v>
+        <stp/>
+        <stp>BDP|16215067856613361158|22</stp>
+        <stp>UKEZ4 Comdty</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="M1" s="3"/>
+      </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4103939100</v>
+        <v>#N/A Requesting Data...870040807</v>
         <stp/>
         <stp>BQL|2827286014736805769</stp>
-        <tr r="M1" s="3"/>
         <tr r="M2" s="3"/>
       </tp>
     </main>
@@ -1016,14 +1035,14 @@
       <sheetData sheetId="5">
         <row r="60">
           <cell r="J60">
-            <v>37.1</v>
+            <v>36.369999999999997</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="44">
           <cell r="J44">
-            <v>52</v>
+            <v>50</v>
           </cell>
         </row>
       </sheetData>
@@ -1048,21 +1067,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:H55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:H55" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:H58" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:H58" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="15" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="14" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="15" dataCellStyle="Currency">
       <calculatedColumnFormula>$M$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="13" dataCellStyle="Currency">
+    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="14" dataCellStyle="Currency">
       <calculatedColumnFormula>(F2-E2)*D2*$V$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="12" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="13" dataCellStyle="Currency">
       <calculatedColumnFormula>H1+G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1440,7 +1459,7 @@
       </c>
       <c r="W1" s="1">
         <f>VLOOKUP(V1,$Y$1:$Z$3,2,FALSE)</f>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="Y1" t="s">
         <v>33</v>
@@ -1467,18 +1486,18 @@
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F33" si="0">$W$1</f>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G2" s="9">
         <v>-5599.9999999999945</v>
       </c>
       <c r="H2" s="10">
         <f>(F2-E2)*D2*1.63</f>
-        <v>-3276.2999999999852</v>
+        <v>1026.9000000000158</v>
       </c>
       <c r="I2" s="21">
         <f>H2</f>
-        <v>-3276.2999999999852</v>
+        <v>1026.9000000000158</v>
       </c>
       <c r="J2">
         <f>D2</f>
@@ -1505,7 +1524,7 @@
       </c>
       <c r="Z2" cm="1">
         <f t="array" ref="Z2">_xll.BQL("MZBZ4 Comdty","px_settle()")</f>
-        <v>70.63</v>
+        <v>68.28</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1526,18 +1545,18 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G3" s="12">
         <v>-5489.9999999999945</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H61" si="1">(F3-E3)*D3*1.63</f>
-        <v>-3096.9999999999859</v>
+        <v>1206.2000000000148</v>
       </c>
       <c r="I3" s="21">
         <f t="shared" ref="I3:I34" si="2">I2+H3</f>
-        <v>-6373.2999999999711</v>
+        <v>2233.1000000000304</v>
       </c>
       <c r="J3">
         <f>J2+D3</f>
@@ -1581,7 +1600,7 @@
       </c>
       <c r="Z3" cm="1">
         <f t="array" ref="Z3">_xll.BDP("MZBZ4 Comdty","LAST_PRICE")</f>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1602,18 +1621,18 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G4" s="9">
         <v>-5719.9999999999991</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
-        <v>-3471.8999999999924</v>
+        <v>831.30000000000825</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" si="2"/>
-        <v>-9845.1999999999643</v>
+        <v>3064.4000000000387</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J66" si="3">J3+D4</f>
@@ -1671,18 +1690,18 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G5" s="12">
         <v>-6420.0000000000018</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="1"/>
-        <v>-4612.8999999999969</v>
+        <v>-309.69999999999629</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" si="2"/>
-        <v>-14458.099999999962</v>
+        <v>2754.7000000000426</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -1740,18 +1759,18 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G6" s="9">
         <v>6549.9999999999973</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>4824.7999999999893</v>
+        <v>521.59999999998888</v>
       </c>
       <c r="I6" s="21">
         <f t="shared" si="2"/>
-        <v>-9633.2999999999738</v>
+        <v>3276.3000000000316</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -1809,18 +1828,18 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G7" s="12">
         <v>6019.9999999999964</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="1"/>
-        <v>3960.8999999999878</v>
+        <v>-342.30000000001297</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="2"/>
-        <v>-5672.399999999986</v>
+        <v>2934.0000000000186</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -1878,18 +1897,18 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G8" s="9">
         <v>6299.9999999999973</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>4417.2999999999893</v>
+        <v>114.09999999998887</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="2"/>
-        <v>-1255.0999999999967</v>
+        <v>3048.1000000000076</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -1947,18 +1966,18 @@
       </c>
       <c r="F9" s="49">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G9" s="48">
         <v>6209.9999999999936</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="1"/>
-        <v>4270.599999999984</v>
+        <v>-32.600000000016678</v>
       </c>
       <c r="I9" s="51">
         <f t="shared" si="2"/>
-        <v>3015.4999999999873</v>
+        <v>3015.4999999999909</v>
       </c>
       <c r="J9" s="52">
         <f t="shared" si="3"/>
@@ -2016,18 +2035,18 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G10" s="44">
         <v>6329.9999999999982</v>
       </c>
       <c r="H10" s="45">
         <f t="shared" si="1"/>
-        <v>4466.1999999999916</v>
+        <v>162.99999999999073</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="2"/>
-        <v>7481.6999999999789</v>
+        <v>3178.4999999999818</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -2084,18 +2103,18 @@
       </c>
       <c r="F11" s="49">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G11" s="48">
         <v>-5450.0000000000027</v>
       </c>
       <c r="H11" s="50">
         <f t="shared" si="1"/>
-        <v>-3031.7999999999993</v>
+        <v>1271.4000000000017</v>
       </c>
       <c r="I11" s="51">
         <f t="shared" si="2"/>
-        <v>4449.8999999999796</v>
+        <v>4449.8999999999833</v>
       </c>
       <c r="J11" s="52">
         <f t="shared" si="3"/>
@@ -2153,18 +2172,18 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G12" s="44">
         <v>-4980.0000000000036</v>
       </c>
       <c r="H12" s="45">
         <f t="shared" si="1"/>
-        <v>-2265.7000000000007</v>
+        <v>2037.4999999999998</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="2"/>
-        <v>2184.1999999999789</v>
+        <v>6487.3999999999833</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -2222,18 +2241,18 @@
       </c>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G13" s="48">
         <v>4969.9999999999991</v>
       </c>
       <c r="H13" s="50">
         <f t="shared" si="1"/>
-        <v>2249.3999999999924</v>
+        <v>-2053.8000000000079</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="2"/>
-        <v>4433.5999999999713</v>
+        <v>4433.5999999999749</v>
       </c>
       <c r="J13" s="52">
         <f t="shared" si="3"/>
@@ -2291,18 +2310,18 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G14" s="44">
         <v>-5150.0000000000055</v>
       </c>
       <c r="H14" s="45">
         <f t="shared" si="1"/>
-        <v>-2542.8000000000034</v>
+        <v>1760.3999999999969</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="2"/>
-        <v>1890.7999999999679</v>
+        <v>6193.9999999999718</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -2360,18 +2379,18 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G15" s="12">
         <v>-4239.9999999999945</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>-1059.4999999999861</v>
+        <v>3243.7000000000148</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="2"/>
-        <v>831.29999999998176</v>
+        <v>9437.6999999999862</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -2429,18 +2448,18 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G16" s="9">
         <v>-4120.0000000000045</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="1"/>
-        <v>-863.9000000000018</v>
+        <v>3439.2999999999988</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="2"/>
-        <v>-32.600000000020032</v>
+        <v>12876.999999999985</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -2498,18 +2517,18 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G17" s="12">
         <v>4109.9999999999991</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="1"/>
-        <v>847.59999999999343</v>
+        <v>-3455.6000000000072</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="2"/>
-        <v>814.9999999999734</v>
+        <v>9421.3999999999778</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -2567,18 +2586,18 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G18" s="9">
         <v>-4019.9999999999959</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>-700.89999999998793</v>
+        <v>3602.3000000000129</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="2"/>
-        <v>114.09999999998547</v>
+        <v>13023.69999999999</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -2636,18 +2655,18 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G19" s="12">
         <v>-3670.0000000000018</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="1"/>
-        <v>-130.39999999999722</v>
+        <v>4172.8000000000038</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="2"/>
-        <v>-16.30000000001175</v>
+        <v>17196.499999999993</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -2705,18 +2724,18 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G20" s="9">
         <v>3230.0000000000041</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>-586.79999999999905</v>
+        <v>-4890</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="2"/>
-        <v>-603.10000000001082</v>
+        <v>12306.499999999993</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -2774,18 +2793,18 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G21" s="12">
         <v>3230.0000000000041</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="1"/>
-        <v>-586.79999999999905</v>
+        <v>-4890</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="2"/>
-        <v>-1189.9000000000099</v>
+        <v>7416.4999999999927</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -2843,18 +2862,18 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G22" s="9">
         <v>3250</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="1"/>
-        <v>-554.2000000000055</v>
+        <v>-4857.400000000006</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="2"/>
-        <v>-1744.1000000000154</v>
+        <v>2559.0999999999867</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -2912,18 +2931,18 @@
       </c>
       <c r="F23" s="49">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G23" s="48">
         <v>1620.0000000000045</v>
       </c>
       <c r="H23" s="50">
         <f t="shared" si="1"/>
-        <v>-3211.0999999999981</v>
+        <v>-7514.2999999999984</v>
       </c>
       <c r="I23" s="51">
         <f t="shared" si="2"/>
-        <v>-4955.2000000000135</v>
+        <v>-4955.2000000000116</v>
       </c>
       <c r="J23" s="52">
         <f t="shared" si="3"/>
@@ -2981,18 +3000,18 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G24" s="44">
         <v>1620.0000000000045</v>
       </c>
       <c r="H24" s="45">
         <f t="shared" si="1"/>
-        <v>-3211.0999999999981</v>
+        <v>-7514.2999999999984</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="2"/>
-        <v>-8166.300000000012</v>
+        <v>-12469.500000000011</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -3050,18 +3069,18 @@
       </c>
       <c r="F25" s="49">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G25" s="48">
         <v>-2319.9999999999932</v>
       </c>
       <c r="H25" s="50">
         <f t="shared" si="1"/>
-        <v>2070.1000000000167</v>
+        <v>6373.3000000000175</v>
       </c>
       <c r="I25" s="51">
         <f t="shared" si="2"/>
-        <v>-6096.1999999999953</v>
+        <v>-6096.1999999999935</v>
       </c>
       <c r="J25" s="52">
         <f t="shared" si="3"/>
@@ -3119,18 +3138,18 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G26" s="44">
         <v>-2319.9999999999932</v>
       </c>
       <c r="H26" s="45">
         <f t="shared" si="1"/>
-        <v>2070.1000000000167</v>
+        <v>6373.3000000000175</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="2"/>
-        <v>-4026.0999999999785</v>
+        <v>277.10000000002401</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -3188,18 +3207,18 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G27" s="12">
         <v>-2459.9999999999936</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>1841.9000000000156</v>
+        <v>6145.1000000000158</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="2"/>
-        <v>-2184.199999999963</v>
+        <v>6422.2000000000398</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -3257,18 +3276,18 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G28" s="9">
         <v>1640.0000000000005</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="1"/>
-        <v>-3178.5000000000041</v>
+        <v>-7481.7000000000053</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="2"/>
-        <v>-5362.6999999999671</v>
+        <v>-1059.4999999999654</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -3326,18 +3345,18 @@
       </c>
       <c r="F29" s="49">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G29" s="48">
         <v>1620.0000000000045</v>
       </c>
       <c r="H29" s="50">
         <f t="shared" si="1"/>
-        <v>-3211.0999999999981</v>
+        <v>-7514.2999999999984</v>
       </c>
       <c r="I29" s="51">
         <f t="shared" si="2"/>
-        <v>-8573.7999999999647</v>
+        <v>-8573.7999999999629</v>
       </c>
       <c r="J29" s="52">
         <f t="shared" si="3"/>
@@ -3395,18 +3414,18 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G30" s="44">
         <v>1379.9999999999955</v>
       </c>
       <c r="H30" s="45">
         <f t="shared" si="1"/>
-        <v>-3602.3000000000129</v>
+        <v>-7905.5000000000127</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="2"/>
-        <v>-12176.099999999977</v>
+        <v>-16479.299999999974</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
@@ -3464,18 +3483,18 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G31" s="12">
         <v>950.00000000000284</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="1"/>
-        <v>-4303.2000000000007</v>
+        <v>-8606.4000000000015</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="2"/>
-        <v>-16479.299999999977</v>
+        <v>-25085.699999999975</v>
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
@@ -3533,18 +3552,18 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G32" s="9">
         <v>670.00000000000171</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="1"/>
-        <v>-4759.6000000000031</v>
+        <v>-9062.8000000000029</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="2"/>
-        <v>-21238.89999999998</v>
+        <v>-34148.499999999978</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
@@ -3602,18 +3621,18 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G33" s="12">
         <v>319.99999999999318</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="1"/>
-        <v>-5330.1000000000158</v>
+        <v>-9633.3000000000175</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="2"/>
-        <v>-26568.999999999996</v>
+        <v>-43781.799999999996</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
@@ -3671,18 +3690,18 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ref="F34:F66" si="10">$W$1</f>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G34" s="9">
         <v>-950.00000000000284</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="1"/>
-        <v>4303.2000000000007</v>
+        <v>8606.4000000000015</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="2"/>
-        <v>-22265.799999999996</v>
+        <v>-35175.399999999994</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
@@ -3740,18 +3759,18 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G35" s="12">
         <v>-969.99999999999886</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="1"/>
-        <v>4270.6000000000067</v>
+        <v>8573.8000000000084</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" ref="I35:I61" si="11">I34+H35</f>
-        <v>-17995.19999999999</v>
+        <v>-26601.599999999984</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
@@ -3809,18 +3828,18 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G36" s="9">
         <v>1819.9999999999932</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="1"/>
-        <v>-2885.1000000000163</v>
+        <v>-7188.3000000000175</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="11"/>
-        <v>-20880.300000000007</v>
+        <v>-33789.9</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
@@ -3878,18 +3897,18 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G37" s="12">
         <v>2069.9999999999932</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="1"/>
-        <v>-2477.6000000000167</v>
+        <v>-6780.8000000000175</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="11"/>
-        <v>-23357.900000000023</v>
+        <v>-40570.700000000019</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
@@ -3947,18 +3966,18 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G38" s="9">
         <v>-2829.9999999999982</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="1"/>
-        <v>1238.8000000000084</v>
+        <v>5542.0000000000082</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="11"/>
-        <v>-22119.100000000013</v>
+        <v>-35028.700000000012</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
@@ -4015,18 +4034,18 @@
       </c>
       <c r="F39" s="49">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G39" s="48">
         <v>-8039.9999999999782</v>
       </c>
       <c r="H39" s="50">
         <f t="shared" si="1"/>
-        <v>4449.9000000000524</v>
+        <v>17359.500000000055</v>
       </c>
       <c r="I39" s="51">
         <f t="shared" si="11"/>
-        <v>-17669.199999999961</v>
+        <v>-17669.199999999957</v>
       </c>
       <c r="J39" s="52">
         <f t="shared" si="3"/>
@@ -4083,18 +4102,18 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G40" s="44">
         <v>-980.00000000000398</v>
       </c>
       <c r="H40" s="45">
         <f t="shared" si="1"/>
-        <v>4254.2999999999993</v>
+        <v>8557.5</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="11"/>
-        <v>-13414.899999999961</v>
+        <v>-9111.6999999999571</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
@@ -4151,18 +4170,18 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G41" s="12">
         <v>-1069.9999999999932</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="1"/>
-        <v>4107.6000000000158</v>
+        <v>8410.8000000000175</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" si="11"/>
-        <v>-9307.2999999999447</v>
+        <v>-700.89999999993961</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
@@ -4219,18 +4238,18 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G42" s="9">
         <v>-620.00000000000455</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="1"/>
-        <v>4841.0999999999985</v>
+        <v>9144.2999999999975</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" si="11"/>
-        <v>-4466.1999999999462</v>
+        <v>8443.4000000000578</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
@@ -4287,18 +4306,18 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G43" s="12">
         <v>1760.000000000005</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="1"/>
-        <v>-2982.8999999999969</v>
+        <v>-7286.0999999999976</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="11"/>
-        <v>-7449.0999999999431</v>
+        <v>1157.3000000000602</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
@@ -4355,18 +4374,18 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G44" s="9">
         <v>2480.0000000000041</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="1"/>
-        <v>-1809.299999999999</v>
+        <v>-6112.5</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="11"/>
-        <v>-9258.3999999999414</v>
+        <v>-4955.1999999999398</v>
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
@@ -4423,18 +4442,18 @@
       </c>
       <c r="F45" s="49">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G45" s="48">
         <v>3120.0000000000045</v>
       </c>
       <c r="H45" s="50">
         <f t="shared" si="1"/>
-        <v>-766.09999999999809</v>
+        <v>-5069.2999999999993</v>
       </c>
       <c r="I45" s="51">
         <f t="shared" si="11"/>
-        <v>-10024.49999999994</v>
+        <v>-10024.499999999938</v>
       </c>
       <c r="J45" s="52">
         <f t="shared" si="3"/>
@@ -4491,18 +4510,18 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G46" s="44">
         <v>-2769.9999999999959</v>
       </c>
       <c r="H46" s="45">
         <f t="shared" si="1"/>
-        <v>1336.600000000012</v>
+        <v>5639.8000000000129</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="11"/>
-        <v>-8687.8999999999287</v>
+        <v>-4384.6999999999252</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
@@ -4559,18 +4578,18 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G47" s="12">
         <v>-2000</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="1"/>
-        <v>2591.7000000000053</v>
+        <v>6894.9000000000051</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="11"/>
-        <v>-6096.1999999999234</v>
+        <v>2510.2000000000799</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
@@ -4627,18 +4646,18 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G48" s="9">
         <v>1939.9999999999977</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" si="1"/>
-        <v>-2689.5000000000091</v>
+        <v>-6992.7000000000098</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" si="11"/>
-        <v>-8785.6999999999316</v>
+        <v>-4482.49999999993</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
@@ -4695,18 +4714,18 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G49" s="12">
         <v>-1989.999999999995</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="1"/>
-        <v>2608.0000000000141</v>
+        <v>6911.2000000000144</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="11"/>
-        <v>-6177.6999999999171</v>
+        <v>2428.7000000000844</v>
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
@@ -4763,18 +4782,18 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G50" s="9">
         <v>-2989.999999999995</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" si="1"/>
-        <v>978.00000000001387</v>
+        <v>5281.2000000000144</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" si="11"/>
-        <v>-5199.6999999999034</v>
+        <v>7709.9000000000988</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
@@ -4831,18 +4850,18 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G51" s="12">
         <v>-3329.9999999999982</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" si="1"/>
-        <v>423.80000000000831</v>
+        <v>4727.0000000000082</v>
       </c>
       <c r="I51" s="21">
         <f t="shared" si="11"/>
-        <v>-4775.899999999895</v>
+        <v>12436.900000000107</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
@@ -4899,18 +4918,18 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G52" s="9">
         <v>-479.99999999998977</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" si="1"/>
-        <v>-12485.799999999994</v>
+        <v>-21092.199999999997</v>
       </c>
       <c r="I52" s="21">
         <f t="shared" si="11"/>
-        <v>-17261.699999999888</v>
+        <v>-8655.2999999998901</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
@@ -4967,18 +4986,18 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G53" s="12">
         <v>-1629.9999999999955</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" si="1"/>
-        <v>3194.8000000000129</v>
+        <v>7498.0000000000127</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="11"/>
-        <v>-14066.899999999874</v>
+        <v>-1157.2999999998774</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
@@ -5035,18 +5054,18 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G54" s="9">
         <v>-1640.0000000000005</v>
       </c>
       <c r="H54" s="10">
         <f t="shared" si="1"/>
-        <v>3178.5000000000041</v>
+        <v>7481.7000000000053</v>
       </c>
       <c r="I54" s="21">
         <f t="shared" si="11"/>
-        <v>-10888.39999999987</v>
+        <v>6324.4000000001279</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
@@ -5103,18 +5122,18 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G55" s="12">
         <v>3429.9999999999927</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" si="1"/>
-        <v>-260.80000000001758</v>
+        <v>-4564.0000000000182</v>
       </c>
       <c r="I55" s="21">
         <f t="shared" si="11"/>
-        <v>-11149.199999999888</v>
+        <v>1760.4000000001097</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
@@ -5171,18 +5190,18 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G56" s="9">
         <v>3079.9999999999982</v>
       </c>
       <c r="H56" s="10">
         <f t="shared" si="1"/>
-        <v>-831.30000000000825</v>
+        <v>-5134.5000000000082</v>
       </c>
       <c r="I56" s="21">
         <f t="shared" si="11"/>
-        <v>-11980.499999999896</v>
+        <v>-3374.0999999998985</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
@@ -5239,18 +5258,18 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G57" s="12">
         <v>-3219.9999999999991</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" si="1"/>
-        <v>603.10000000000741</v>
+        <v>4906.3000000000075</v>
       </c>
       <c r="I57" s="21">
         <f t="shared" si="11"/>
-        <v>-11377.399999999889</v>
+        <v>1532.200000000109</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
@@ -5307,18 +5326,18 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G58" s="9">
         <v>-3700.0000000000027</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="1"/>
-        <v>-179.29999999999907</v>
+        <v>4123.9000000000015</v>
       </c>
       <c r="I58" s="21">
         <f t="shared" si="11"/>
-        <v>-11556.699999999888</v>
+        <v>5656.1000000001104</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
@@ -5375,18 +5394,18 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G59" s="12">
         <v>-4590.0000000000036</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" si="1"/>
-        <v>-1630</v>
+        <v>2673.2000000000007</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="11"/>
-        <v>-13186.699999999888</v>
+        <v>8329.300000000112</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
@@ -5443,18 +5462,18 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G60" s="9">
         <v>-5439.9999999999982</v>
       </c>
       <c r="H60" s="10">
         <f t="shared" si="1"/>
-        <v>-3015.4999999999905</v>
+        <v>1287.70000000001</v>
       </c>
       <c r="I60" s="21">
         <f t="shared" si="11"/>
-        <v>-16202.199999999879</v>
+        <v>9617.0000000001219</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
@@ -5511,18 +5530,18 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G61" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" si="1"/>
-        <v>472.70000000001016</v>
+        <v>4775.9000000000106</v>
       </c>
       <c r="I61" s="21">
         <f t="shared" si="11"/>
-        <v>-15729.499999999869</v>
+        <v>14392.900000000132</v>
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
@@ -5579,18 +5598,18 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G62" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H62" s="10">
         <f>(F62-E62)*D62*1.63</f>
-        <v>-8769.400000000016</v>
+        <v>-13072.600000000015</v>
       </c>
       <c r="I62" s="21">
         <f>I61+H62</f>
-        <v>-24498.899999999885</v>
+        <v>1320.3000000001175</v>
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
@@ -5648,18 +5667,18 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G63" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H63" s="10">
         <f>(F63-E63)*D63*1.63</f>
-        <v>-8785.7000000000007</v>
+        <v>-13088.900000000001</v>
       </c>
       <c r="I63" s="21">
         <f>I62+H63</f>
-        <v>-33284.599999999889</v>
+        <v>-11768.599999999884</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
@@ -5717,18 +5736,18 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G64" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H64" s="10">
         <f>(F64-E64)*D64*1.63</f>
-        <v>-8492.300000000012</v>
+        <v>-12795.500000000013</v>
       </c>
       <c r="I64" s="21">
         <f>I63+H64</f>
-        <v>-41776.8999999999</v>
+        <v>-24564.099999999897</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
@@ -5786,18 +5805,18 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G65" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H65" s="10">
         <f>(F65-E65)*D65*1.63</f>
-        <v>5216.0000000000045</v>
+        <v>9519.2000000000062</v>
       </c>
       <c r="I65" s="21">
         <f>I64+H65</f>
-        <v>-36560.899999999892</v>
+        <v>-15044.89999999989</v>
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
@@ -5854,18 +5873,18 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="10"/>
-        <v>70.63</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="G66" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H66" s="10">
         <f>(F66-E66)*D66*1.63</f>
-        <v>1467.0000000000091</v>
+        <v>5770.2000000000098</v>
       </c>
       <c r="I66" s="21">
         <f>I65+H66</f>
-        <v>-35093.899999999885</v>
+        <v>-9274.6999999998807</v>
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
@@ -5906,12 +5925,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H66">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J66">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5928,10 +5947,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483F930B-A90B-4DE2-AD39-B6A527EDDD6D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,8 +5995,8 @@
         <v>7</v>
       </c>
       <c r="M1" s="34" cm="1">
-        <f t="array" ref="M1">_xll.BQL(U2,"px_settle()")</f>
-        <v>47.97</v>
+        <f t="array" ref="M1">_xll.BDP(U2,"LAST_PRICE")</f>
+        <v>49.33</v>
       </c>
       <c r="U1" t="s">
         <v>21</v>
@@ -6015,7 +6034,7 @@
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">_xll.BQL("UKEZ4 Comdty","px_settle()")</f>
-        <v>47.97</v>
+        <v>48.6</v>
       </c>
       <c r="U2" t="s">
         <v>16</v>
@@ -6178,16 +6197,16 @@
         <v>37.99</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" ref="F8:F55" si="1">$M$1</f>
-        <v>47.97</v>
+        <f t="shared" ref="F8:F58" si="1">$M$1</f>
+        <v>49.33</v>
       </c>
       <c r="G8" s="26">
         <f t="shared" si="0"/>
-        <v>94809.999999999971</v>
+        <v>107729.99999999996</v>
       </c>
       <c r="H8" s="27">
         <f>G8</f>
-        <v>94809.999999999971</v>
+        <v>107729.99999999996</v>
       </c>
       <c r="I8">
         <f>D8</f>
@@ -6212,15 +6231,15 @@
       </c>
       <c r="F9" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G9" s="26">
         <f t="shared" si="0"/>
-        <v>93764.999999999971</v>
+        <v>106684.99999999997</v>
       </c>
       <c r="H9" s="27">
         <f>H8+G9</f>
-        <v>188574.99999999994</v>
+        <v>214414.99999999994</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I55" si="2">I8+D9</f>
@@ -6245,15 +6264,15 @@
       </c>
       <c r="F10" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="0"/>
-        <v>-99464.999999999985</v>
+        <v>-112384.99999999999</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" ref="H10:H28" si="3">H9+G10</f>
-        <v>89109.999999999956</v>
+        <v>102029.99999999996</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -6278,15 +6297,15 @@
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G11" s="26">
         <f t="shared" si="0"/>
-        <v>-40850</v>
+        <v>-46018</v>
       </c>
       <c r="H11" s="27">
         <f t="shared" si="3"/>
-        <v>48259.999999999956</v>
+        <v>56011.999999999956</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -6311,15 +6330,15 @@
       </c>
       <c r="F12" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G12" s="26">
         <f t="shared" si="0"/>
-        <v>-18809.999999999996</v>
+        <v>-21393.999999999996</v>
       </c>
       <c r="H12" s="27">
         <f t="shared" si="3"/>
-        <v>29449.99999999996</v>
+        <v>34617.999999999956</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -6344,15 +6363,15 @@
       </c>
       <c r="F13" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="0"/>
-        <v>-18676.999999999996</v>
+        <v>-21260.999999999996</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="3"/>
-        <v>10772.999999999964</v>
+        <v>13356.99999999996</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
@@ -6383,11 +6402,11 @@
       </c>
       <c r="F14" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G14" s="26">
         <f t="shared" si="0"/>
-        <v>-18601</v>
+        <v>-21184.999999999996</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="3"/>
@@ -6448,15 +6467,15 @@
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G15" s="26">
         <f t="shared" si="0"/>
-        <v>-37012.000000000007</v>
+        <v>-42180.000000000007</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="3"/>
-        <v>-44840.000000000044</v>
+        <v>-50008.000000000044</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
@@ -6513,15 +6532,15 @@
       </c>
       <c r="F16" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G16" s="26">
         <f t="shared" si="0"/>
-        <v>-36175.999999999985</v>
+        <v>-41343.999999999985</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="3"/>
-        <v>-81016.000000000029</v>
+        <v>-91352.000000000029</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -6578,15 +6597,15 @@
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="0"/>
-        <v>-38114.000000000007</v>
+        <v>-43282</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" si="3"/>
-        <v>-119130.00000000003</v>
+        <v>-134634.00000000003</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -6643,15 +6662,15 @@
       </c>
       <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="0"/>
-        <v>20367.999999999996</v>
+        <v>22951.999999999996</v>
       </c>
       <c r="H18" s="27">
         <f t="shared" si="3"/>
-        <v>-98762.000000000029</v>
+        <v>-111682.00000000003</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -6708,15 +6727,15 @@
       </c>
       <c r="F19" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G19" s="26">
         <f t="shared" si="0"/>
-        <v>20652.999999999996</v>
+        <v>23236.999999999993</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="3"/>
-        <v>-78109.000000000029</v>
+        <v>-88445.000000000029</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
@@ -6773,15 +6792,15 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G20" s="26">
         <f t="shared" si="0"/>
-        <v>-39785.999999999993</v>
+        <v>-44953.999999999993</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="3"/>
-        <v>-117895.00000000003</v>
+        <v>-133399.00000000003</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
@@ -6838,15 +6857,15 @@
       </c>
       <c r="F21" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G21" s="26">
         <f t="shared" si="0"/>
-        <v>-19512.999999999993</v>
+        <v>-22096.999999999993</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="3"/>
-        <v>-137408.00000000003</v>
+        <v>-155496.00000000003</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
@@ -6903,15 +6922,15 @@
       </c>
       <c r="F22" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G22" s="26">
         <f t="shared" si="0"/>
-        <v>20367.999999999996</v>
+        <v>22951.999999999996</v>
       </c>
       <c r="H22" s="27">
         <f t="shared" si="3"/>
-        <v>-117040.00000000003</v>
+        <v>-132544.00000000003</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
@@ -6968,15 +6987,15 @@
       </c>
       <c r="F23" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="0"/>
-        <v>20652.999999999996</v>
+        <v>23236.999999999993</v>
       </c>
       <c r="H23" s="27">
         <f t="shared" si="3"/>
-        <v>-96387.000000000029</v>
+        <v>-109307.00000000003</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
@@ -7033,15 +7052,15 @@
       </c>
       <c r="F24" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G24" s="26">
         <f t="shared" si="0"/>
-        <v>-18961.999999999993</v>
+        <v>-21545.999999999993</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="3"/>
-        <v>-115349.00000000003</v>
+        <v>-130853.00000000003</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
@@ -7098,15 +7117,15 @@
       </c>
       <c r="F25" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G25" s="26">
         <f t="shared" si="0"/>
-        <v>-18506.000000000004</v>
+        <v>-21090.000000000004</v>
       </c>
       <c r="H25" s="27">
         <f t="shared" si="3"/>
-        <v>-133855.00000000003</v>
+        <v>-151943.00000000003</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
@@ -7163,15 +7182,15 @@
       </c>
       <c r="F26" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G26" s="26">
         <f t="shared" si="0"/>
-        <v>-36403.999999999993</v>
+        <v>-41571.999999999993</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="3"/>
-        <v>-170259.00000000003</v>
+        <v>-193515.00000000003</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -7228,15 +7247,15 @@
       </c>
       <c r="F27" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G27" s="26">
         <f t="shared" si="0"/>
-        <v>-31616</v>
+        <v>-36784</v>
       </c>
       <c r="H27" s="27">
         <f t="shared" si="3"/>
-        <v>-201875.00000000003</v>
+        <v>-230299.00000000003</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
@@ -7293,15 +7312,15 @@
       </c>
       <c r="F28" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G28" s="26">
         <f t="shared" si="0"/>
-        <v>-16283</v>
+        <v>-18867</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="3"/>
-        <v>-218158.00000000003</v>
+        <v>-249166.00000000003</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
@@ -7358,15 +7377,15 @@
       </c>
       <c r="F29" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G29" s="26">
         <f t="shared" si="0"/>
-        <v>-10564.000000000004</v>
+        <v>-13148.000000000004</v>
       </c>
       <c r="H29" s="27">
         <f t="shared" ref="H29:H47" si="4">H28+G29</f>
-        <v>-228722.00000000003</v>
+        <v>-262314.00000000006</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
@@ -7423,15 +7442,15 @@
       </c>
       <c r="F30" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G30" s="26">
         <f t="shared" si="0"/>
-        <v>-10317</v>
+        <v>-12900.999999999998</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="4"/>
-        <v>-239039.00000000003</v>
+        <v>-275215.00000000006</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
@@ -7488,15 +7507,15 @@
       </c>
       <c r="F31" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G31" s="26">
         <f t="shared" si="0"/>
-        <v>-10620.999999999993</v>
+        <v>-13204.999999999991</v>
       </c>
       <c r="H31" s="27">
         <f t="shared" si="4"/>
-        <v>-249660.00000000003</v>
+        <v>-288420.00000000006</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
@@ -7553,15 +7572,15 @@
       </c>
       <c r="F32" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G32" s="26">
         <f t="shared" si="0"/>
-        <v>-20064.000000000004</v>
+        <v>-25232.000000000004</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="4"/>
-        <v>-269724.00000000006</v>
+        <v>-313652.00000000006</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -7618,15 +7637,15 @@
       </c>
       <c r="F33" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G33" s="26">
         <f t="shared" si="0"/>
-        <v>15275.999999999984</v>
+        <v>20443.999999999982</v>
       </c>
       <c r="H33" s="27">
         <f t="shared" si="4"/>
-        <v>-254448.00000000009</v>
+        <v>-293208.00000000006</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
@@ -7685,15 +7704,15 @@
       </c>
       <c r="F34" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G34" s="26">
-        <f t="shared" ref="G34:G65" si="5">(F34-E34)*D34*$V$1</f>
-        <v>7999.0000000000009</v>
+        <f t="shared" ref="G34:G55" si="5">(F34-E34)*D34*$V$1</f>
+        <v>10583</v>
       </c>
       <c r="H34" s="27">
         <f t="shared" si="4"/>
-        <v>-246449.00000000009</v>
+        <v>-282625.00000000006</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
@@ -7752,15 +7771,15 @@
       </c>
       <c r="F35" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G35" s="26">
         <f t="shared" si="5"/>
-        <v>6973.0000000000027</v>
+        <v>9557.0000000000018</v>
       </c>
       <c r="H35" s="27">
         <f t="shared" si="4"/>
-        <v>-239476.00000000009</v>
+        <v>-273068.00000000006</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
@@ -7819,15 +7838,15 @@
       </c>
       <c r="F36" s="25">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G36" s="26">
         <f t="shared" si="5"/>
-        <v>-6308.0000000000009</v>
+        <v>-8892</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="4"/>
-        <v>-245784.00000000009</v>
+        <v>-281960.00000000006</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
@@ -7884,15 +7903,15 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G37" s="36">
         <f t="shared" si="5"/>
-        <v>-6308.0000000000009</v>
+        <v>-8892</v>
       </c>
       <c r="H37" s="27">
         <f t="shared" si="4"/>
-        <v>-252092.00000000009</v>
+        <v>-290852.00000000006</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
@@ -7949,15 +7968,15 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G38" s="26">
         <f t="shared" si="5"/>
-        <v>-6289.0000000000036</v>
+        <v>-8873.0000000000036</v>
       </c>
       <c r="H38" s="27">
         <f t="shared" si="4"/>
-        <v>-258381.00000000009</v>
+        <v>-299725.00000000006</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
@@ -8015,15 +8034,15 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G39" s="36">
         <f t="shared" si="5"/>
-        <v>-6383.9999999999991</v>
+        <v>-8967.9999999999982</v>
       </c>
       <c r="H39" s="27">
         <f t="shared" si="4"/>
-        <v>-264765.00000000006</v>
+        <v>-308693.00000000006</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
@@ -8080,15 +8099,15 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G40" s="36">
         <f t="shared" si="5"/>
-        <v>-12273.999999999987</v>
+        <v>-17441.999999999985</v>
       </c>
       <c r="H40" s="27">
         <f t="shared" si="4"/>
-        <v>-277039.00000000006</v>
+        <v>-326135.00000000006</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
@@ -8145,15 +8164,15 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G41" s="26">
         <f t="shared" si="5"/>
-        <v>7941.9999999999854</v>
+        <v>13109.999999999984</v>
       </c>
       <c r="H41" s="27">
         <f t="shared" si="4"/>
-        <v>-269097.00000000006</v>
+        <v>-313025.00000000006</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
@@ -8210,15 +8229,15 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G42" s="26">
         <f t="shared" si="5"/>
-        <v>3495.9999999999927</v>
+        <v>6079.9999999999918</v>
       </c>
       <c r="H42" s="27">
         <f t="shared" si="4"/>
-        <v>-265601.00000000006</v>
+        <v>-306945.00000000006</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
@@ -8275,15 +8294,15 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G43" s="26">
         <f t="shared" si="5"/>
-        <v>6155.99999999999</v>
+        <v>11323.999999999987</v>
       </c>
       <c r="H43" s="27">
         <f t="shared" si="4"/>
-        <v>-259445.00000000006</v>
+        <v>-295621.00000000006</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
@@ -8340,15 +8359,15 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G44" s="26">
         <f t="shared" si="5"/>
-        <v>2508.0000000000005</v>
+        <v>5091.9999999999991</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="4"/>
-        <v>-256937.00000000006</v>
+        <v>-290529.00000000006</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
@@ -8405,15 +8424,15 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G45" s="26">
         <f t="shared" si="5"/>
-        <v>7105.99999999999</v>
+        <v>12273.999999999987</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="4"/>
-        <v>-249831.00000000006</v>
+        <v>-278255.00000000006</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
@@ -8470,15 +8489,15 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G46" s="26">
         <f t="shared" si="5"/>
-        <v>2944.9999999999945</v>
+        <v>5528.9999999999927</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="4"/>
-        <v>-246886.00000000006</v>
+        <v>-272726.00000000006</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
@@ -8535,15 +8554,15 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G47" s="26">
         <f t="shared" si="5"/>
-        <v>4939.9999999999891</v>
+        <v>10107.999999999985</v>
       </c>
       <c r="H47" s="27">
         <f t="shared" si="4"/>
-        <v>-241946.00000000006</v>
+        <v>-262618.00000000006</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
@@ -8600,15 +8619,15 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G48" s="26">
         <f t="shared" si="5"/>
-        <v>-2622.0000000000045</v>
+        <v>-38.00000000000594</v>
       </c>
       <c r="H48" s="27">
         <f t="shared" ref="H48:H53" si="6">H47+G48</f>
-        <v>-244568.00000000006</v>
+        <v>-262656.00000000006</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
@@ -8665,15 +8684,15 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G49" s="26">
         <f t="shared" si="5"/>
-        <v>-3382.0000000000018</v>
+        <v>-798.00000000000318</v>
       </c>
       <c r="H49" s="27">
         <f t="shared" si="6"/>
-        <v>-247950.00000000006</v>
+        <v>-263454.00000000006</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
@@ -8730,15 +8749,15 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G50" s="26">
         <f t="shared" si="5"/>
-        <v>1443.9999999999961</v>
+        <v>-1140.0000000000025</v>
       </c>
       <c r="H50" s="27">
         <f t="shared" si="6"/>
-        <v>-246506.00000000006</v>
+        <v>-264594.00000000006</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
@@ -8795,15 +8814,15 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G51" s="26">
         <f t="shared" si="5"/>
-        <v>493.99999999999619</v>
+        <v>-2090.0000000000023</v>
       </c>
       <c r="H51" s="27">
         <f t="shared" si="6"/>
-        <v>-246012.00000000006</v>
+        <v>-266684.00000000006</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
@@ -8860,15 +8879,15 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G52" s="26">
         <f t="shared" si="5"/>
-        <v>-2128.0000000000086</v>
+        <v>-7296.0000000000064</v>
       </c>
       <c r="H52" s="27">
         <f t="shared" si="6"/>
-        <v>-248140.00000000006</v>
+        <v>-273980.00000000006</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
@@ -8925,15 +8944,15 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G53" s="36">
         <f t="shared" si="5"/>
-        <v>-1539.0000000000043</v>
+        <v>-4123.0000000000036</v>
       </c>
       <c r="H53" s="27">
         <f t="shared" si="6"/>
-        <v>-249679.00000000006</v>
+        <v>-278103.00000000006</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
@@ -8990,15 +9009,15 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G54" s="36">
         <f t="shared" si="5"/>
-        <v>-2146.9999999999914</v>
+        <v>-4730.99999999999</v>
       </c>
       <c r="H54" s="27">
         <f>H53+G54</f>
-        <v>-251826.00000000006</v>
+        <v>-282834.00000000006</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
@@ -9055,15 +9074,15 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="1"/>
-        <v>47.97</v>
+        <v>49.33</v>
       </c>
       <c r="G55" s="36">
         <f t="shared" si="5"/>
-        <v>-3096.9999999999914</v>
+        <v>-5680.99999999999</v>
       </c>
       <c r="H55" s="27">
         <f>H54+G55</f>
-        <v>-254923.00000000006</v>
+        <v>-288515.00000000006</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
@@ -9102,22 +9121,222 @@
         <v>44.426666666666669</v>
       </c>
     </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="66">
+        <v>45456</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="69">
+        <v>1000</v>
+      </c>
+      <c r="E56" s="35">
+        <v>48.8</v>
+      </c>
+      <c r="F56" s="35">
+        <f t="shared" si="1"/>
+        <v>49.33</v>
+      </c>
+      <c r="G56" s="26">
+        <f t="shared" ref="G56:G58" si="7">(F56-E56)*D56*$V$1</f>
+        <v>1007.0000000000022</v>
+      </c>
+      <c r="H56" s="27">
+        <f t="shared" ref="H56:H58" si="8">H55+G56</f>
+        <v>-287508.00000000006</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ref="I56:I58" si="9">I55+D56</f>
+        <v>-12000</v>
+      </c>
+      <c r="K56">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Qty]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="33">
+        <f>SUM($K$14:$K56)</f>
+        <v>-35000</v>
+      </c>
+      <c r="N56" s="1">
+        <f>SUMPRODUCT(K$15:K56,L$15:L56)/SUM(K$15:K56)</f>
+        <v>41.956470588235291</v>
+      </c>
+      <c r="P56">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Qty]],0)</f>
+        <v>1000</v>
+      </c>
+      <c r="Q56" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>48.8</v>
+      </c>
+      <c r="R56" s="33">
+        <f>SUM($P$14:$P56)</f>
+        <v>22000</v>
+      </c>
+      <c r="S56" s="1">
+        <f>SUMPRODUCT(P$15:P56,Q$15:Q56)/SUM(P$15:P56)</f>
+        <v>44.625454545454545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="66">
+        <v>45456</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="69">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="35">
+        <v>48.72</v>
+      </c>
+      <c r="F57" s="35">
+        <f t="shared" si="1"/>
+        <v>49.33</v>
+      </c>
+      <c r="G57" s="26">
+        <f t="shared" si="7"/>
+        <v>1158.9999999999989</v>
+      </c>
+      <c r="H57" s="27">
+        <f t="shared" si="8"/>
+        <v>-286349.00000000006</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="9"/>
+        <v>-11000</v>
+      </c>
+      <c r="K57">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Qty]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="33">
+        <f>SUM($K$14:$K57)</f>
+        <v>-35000</v>
+      </c>
+      <c r="N57" s="1">
+        <f>SUMPRODUCT(K$15:K57,L$15:L57)/SUM(K$15:K57)</f>
+        <v>41.956470588235291</v>
+      </c>
+      <c r="P57">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Qty]],0)</f>
+        <v>1000</v>
+      </c>
+      <c r="Q57" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>48.72</v>
+      </c>
+      <c r="R57" s="33">
+        <f>SUM($P$14:$P57)</f>
+        <v>23000</v>
+      </c>
+      <c r="S57" s="1">
+        <f>SUMPRODUCT(P$15:P57,Q$15:Q57)/SUM(P$15:P57)</f>
+        <v>44.803478260869568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="66">
+        <v>45457</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="70">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="35">
+        <v>49.2</v>
+      </c>
+      <c r="F58" s="35">
+        <f t="shared" si="1"/>
+        <v>49.33</v>
+      </c>
+      <c r="G58" s="36">
+        <f t="shared" si="7"/>
+        <v>246.99999999999136</v>
+      </c>
+      <c r="H58" s="27">
+        <f t="shared" si="8"/>
+        <v>-286102.00000000006</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="9"/>
+        <v>-10000</v>
+      </c>
+      <c r="K58">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Qty]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="33">
+        <f>SUM($K$14:$K58)</f>
+        <v>-35000</v>
+      </c>
+      <c r="N58" s="1">
+        <f>SUMPRODUCT(K$15:K58,L$15:L58)/SUM(K$15:K58)</f>
+        <v>41.956470588235291</v>
+      </c>
+      <c r="P58">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Qty]],0)</f>
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>49.2</v>
+      </c>
+      <c r="R58" s="33">
+        <f>SUM($P$14:$P58)</f>
+        <v>24000</v>
+      </c>
+      <c r="S58" s="1">
+        <f>SUMPRODUCT(P$15:P58,Q$15:Q58)/SUM(P$15:P58)</f>
+        <v>44.986666666666665</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C47 C50:C55">
-    <cfRule type="containsText" dxfId="9" priority="40" operator="containsText" text="Buy">
+  <conditionalFormatting sqref="C2:C47 C50:C58">
+    <cfRule type="containsText" dxfId="10" priority="41" operator="containsText" text="Buy">
       <formula>NOT(ISERROR(SEARCH("Buy",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="41" operator="containsText" text="Sell">
+    <cfRule type="containsText" dxfId="9" priority="42" operator="containsText" text="Sell">
       <formula>NOT(ISERROR(SEARCH("Sell",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H55">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G2:H58">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H55">
-    <cfRule type="cellIs" dxfId="6" priority="148" operator="lessThan">
+  <conditionalFormatting sqref="H10:H58">
+    <cfRule type="cellIs" dxfId="7" priority="149" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:H58">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9177,7 +9396,7 @@
       </c>
       <c r="N1" s="40">
         <f>[1]Daily_MTM!$J$60</f>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9198,18 +9417,18 @@
       </c>
       <c r="F2" s="9">
         <f>$N$1</f>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G2" s="9">
         <v>1099.9999999999943</v>
       </c>
       <c r="H2" s="10">
         <f t="shared" ref="H2:H9" si="0">(F2-E2)*D2*1.5</f>
-        <v>-7050.0000000000036</v>
+        <v>-9240.0000000000164</v>
       </c>
       <c r="I2" s="20">
         <f>H2</f>
-        <v>-7050.0000000000036</v>
+        <v>-9240.0000000000164</v>
       </c>
       <c r="J2">
         <f>D2</f>
@@ -9234,18 +9453,18 @@
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:F9" si="1">$N$1</f>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G3" s="12">
         <v>-243439790.16897666</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" si="0"/>
-        <v>-9000</v>
+        <v>-11190.000000000013</v>
       </c>
       <c r="I3" s="20">
         <f t="shared" ref="I3:I9" si="2">I2+H3</f>
-        <v>-16050.000000000004</v>
+        <v>-20430.000000000029</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J9" si="3">J2+D3</f>
@@ -9270,18 +9489,18 @@
       </c>
       <c r="F4" s="9">
         <f t="shared" si="1"/>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G4" s="9">
         <v>-243439490.16897666</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>-8550.0000000000036</v>
+        <v>-10740.000000000016</v>
       </c>
       <c r="I4" s="20">
         <f t="shared" si="2"/>
-        <v>-24600.000000000007</v>
+        <v>-31170.000000000044</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
@@ -9306,18 +9525,18 @@
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G5" s="12">
         <v>-121719545.08448833</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="0"/>
-        <v>-3974.9999999999982</v>
+        <v>-5070.0000000000036</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="2"/>
-        <v>-28575.000000000007</v>
+        <v>-36240.000000000044</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -9342,18 +9561,18 @@
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G6" s="9">
         <v>-121719215.08448833</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="0"/>
-        <v>-3480.0000000000009</v>
+        <v>-4575.0000000000064</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="2"/>
-        <v>-32055.000000000007</v>
+        <v>-40815.000000000051</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -9382,18 +9601,18 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="G7" s="9">
         <v>-121719215.08448833</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>-7424.9999999999927</v>
+        <v>-10710.000000000011</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="2"/>
-        <v>-39480</v>
+        <v>-51525.000000000058</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -9422,15 +9641,15 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>-2114.999999999995</v>
+        <v>-3210.0000000000009</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="2"/>
-        <v>-41594.999999999993</v>
+        <v>-54735.000000000058</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -9459,15 +9678,15 @@
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>37.1</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>-5219.9999999999854</v>
+        <v>-8505.0000000000036</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="2"/>
-        <v>-46814.999999999978</v>
+        <v>-63240.000000000058</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -9480,17 +9699,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:I7">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I9">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9793,7 +10012,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9807,8 +10026,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9865,15 +10084,15 @@
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F8" si="0">$X$3</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G9" si="1">(F2-E2)*D2*0.9</f>
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="H2" s="20">
         <f>G2</f>
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="I2">
         <f>D2</f>
@@ -9930,15 +10149,15 @@
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="H3" s="20">
         <f t="shared" ref="H3:H9" si="2">H2+G3</f>
-        <v>81000</v>
+        <v>54000</v>
       </c>
       <c r="I3">
         <f>I2+D3</f>
@@ -9982,7 +10201,7 @@
       </c>
       <c r="X3" s="40">
         <f>[1]Daily_MTM_live!$J$44</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -10003,15 +10222,15 @@
       </c>
       <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="1"/>
-        <v>-54000</v>
+        <v>-36000</v>
       </c>
       <c r="H4" s="20">
         <f t="shared" si="2"/>
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I9" si="3">I3+D4</f>
@@ -10069,15 +10288,15 @@
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="1"/>
-        <v>29474.999999999989</v>
+        <v>20474.999999999989</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" si="2"/>
-        <v>56474.999999999985</v>
+        <v>38474.999999999985</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
@@ -10135,15 +10354,15 @@
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="1"/>
-        <v>15750</v>
+        <v>6750</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="2"/>
-        <v>72224.999999999985</v>
+        <v>45224.999999999985</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
@@ -10201,15 +10420,15 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>22500</v>
+        <v>40500</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="2"/>
-        <v>94724.999999999985</v>
+        <v>85724.999999999985</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -10267,11 +10486,11 @@
       </c>
       <c r="F8" s="63">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="50">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="H8" s="64">
         <f t="shared" si="2"/>
@@ -10334,15 +10553,15 @@
       </c>
       <c r="F9" s="17">
         <f>X3</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="65">
         <f t="shared" si="1"/>
-        <v>14625</v>
+        <v>5625</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="2"/>
-        <v>113849.99999999999</v>
+        <v>104849.99999999999</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
@@ -10391,7 +10610,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10562,7 +10781,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trade tracking.xlsx
+++ b/Trade tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carbon_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6A936C-FA9B-4407-9082-E8A748856081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349E32A2-B9BE-4FA2-8603-6A65A9E06C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28740" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B914D543-2248-43F6-AF53-C4900C919E6D}"/>
   </bookViews>
@@ -516,7 +516,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,23 +583,13 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -960,7 +950,7 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4237918006</v>
+        <v>#N/A Requesting Data...4272289469</v>
         <stp/>
         <stp>BQL|13971283072816375479</stp>
         <tr r="Z2" s="2"/>
@@ -968,7 +958,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
         <stp/>
         <stp>BDP|1633375409542931071|22</stp>
         <stp>MZBZ4 Comdty</stp>
@@ -978,7 +968,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp>
-        <v>49.33</v>
+        <v>50.03</v>
         <stp/>
         <stp>BDP|16215067856613361158|22</stp>
         <stp>UKEZ4 Comdty</stp>
@@ -986,7 +976,7 @@
         <tr r="M1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...870040807</v>
+        <v>#N/A Requesting Data...2865994251</v>
         <stp/>
         <stp>BQL|2827286014736805769</stp>
         <tr r="M2" s="3"/>
@@ -1042,7 +1032,7 @@
       <sheetData sheetId="6">
         <row r="44">
           <cell r="J44">
-            <v>50</v>
+            <v>48</v>
           </cell>
         </row>
       </sheetData>
@@ -1067,21 +1057,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:H58" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:H58" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:H58" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="15" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="15" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="14" dataCellStyle="Currency">
       <calculatedColumnFormula>$M$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="14" dataCellStyle="Currency">
+    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="13" dataCellStyle="Currency">
       <calculatedColumnFormula>(F2-E2)*D2*$V$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="13" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="12" dataCellStyle="Currency">
       <calculatedColumnFormula>H1+G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1459,7 +1449,7 @@
       </c>
       <c r="W1" s="1">
         <f>VLOOKUP(V1,$Y$1:$Z$3,2,FALSE)</f>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="Y1" t="s">
         <v>33</v>
@@ -1486,18 +1476,18 @@
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F33" si="0">$W$1</f>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G2" s="9">
         <v>-5599.9999999999945</v>
       </c>
       <c r="H2" s="10">
         <f>(F2-E2)*D2*1.63</f>
-        <v>1026.9000000000158</v>
+        <v>-228.2000000000009</v>
       </c>
       <c r="I2" s="21">
         <f>H2</f>
-        <v>1026.9000000000158</v>
+        <v>-228.2000000000009</v>
       </c>
       <c r="J2">
         <f>D2</f>
@@ -1524,7 +1514,7 @@
       </c>
       <c r="Z2" cm="1">
         <f t="array" ref="Z2">_xll.BQL("MZBZ4 Comdty","px_settle()")</f>
-        <v>68.28</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1545,18 +1535,18 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G3" s="12">
         <v>-5489.9999999999945</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H61" si="1">(F3-E3)*D3*1.63</f>
-        <v>1206.2000000000148</v>
+        <v>-48.900000000001853</v>
       </c>
       <c r="I3" s="21">
         <f t="shared" ref="I3:I34" si="2">I2+H3</f>
-        <v>2233.1000000000304</v>
+        <v>-277.10000000000275</v>
       </c>
       <c r="J3">
         <f>J2+D3</f>
@@ -1600,7 +1590,7 @@
       </c>
       <c r="Z3" cm="1">
         <f t="array" ref="Z3">_xll.BDP("MZBZ4 Comdty","LAST_PRICE")</f>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1621,18 +1611,18 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G4" s="9">
         <v>-5719.9999999999991</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
-        <v>831.30000000000825</v>
+        <v>-423.80000000000831</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" si="2"/>
-        <v>3064.4000000000387</v>
+        <v>-700.900000000011</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J66" si="3">J3+D4</f>
@@ -1690,18 +1680,18 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G5" s="12">
         <v>-6420.0000000000018</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="1"/>
-        <v>-309.69999999999629</v>
+        <v>-1564.8000000000129</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" si="2"/>
-        <v>2754.7000000000426</v>
+        <v>-2265.7000000000239</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -1759,18 +1749,18 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G6" s="9">
         <v>6549.9999999999973</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>521.59999999998888</v>
+        <v>1776.7000000000055</v>
       </c>
       <c r="I6" s="21">
         <f t="shared" si="2"/>
-        <v>3276.3000000000316</v>
+        <v>-489.00000000001842</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -1828,18 +1818,18 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G7" s="12">
         <v>6019.9999999999964</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="1"/>
-        <v>-342.30000000001297</v>
+        <v>912.80000000000359</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="2"/>
-        <v>2934.0000000000186</v>
+        <v>423.79999999998518</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -1897,18 +1887,18 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G8" s="9">
         <v>6299.9999999999973</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>114.09999999998887</v>
+        <v>1369.2000000000055</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="2"/>
-        <v>3048.1000000000076</v>
+        <v>1792.9999999999907</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -1966,14 +1956,14 @@
       </c>
       <c r="F9" s="49">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G9" s="48">
         <v>6209.9999999999936</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="1"/>
-        <v>-32.600000000016678</v>
+        <v>1222.5</v>
       </c>
       <c r="I9" s="51">
         <f t="shared" si="2"/>
@@ -2035,18 +2025,18 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G10" s="44">
         <v>6329.9999999999982</v>
       </c>
       <c r="H10" s="45">
         <f t="shared" si="1"/>
-        <v>162.99999999999073</v>
+        <v>1418.1000000000074</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="2"/>
-        <v>3178.4999999999818</v>
+        <v>4433.5999999999985</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -2103,14 +2093,14 @@
       </c>
       <c r="F11" s="49">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G11" s="48">
         <v>-5450.0000000000027</v>
       </c>
       <c r="H11" s="50">
         <f t="shared" si="1"/>
-        <v>1271.4000000000017</v>
+        <v>16.299999999985175</v>
       </c>
       <c r="I11" s="51">
         <f t="shared" si="2"/>
@@ -2172,18 +2162,18 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G12" s="44">
         <v>-4980.0000000000036</v>
       </c>
       <c r="H12" s="45">
         <f t="shared" si="1"/>
-        <v>2037.4999999999998</v>
+        <v>782.39999999998327</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="2"/>
-        <v>6487.3999999999833</v>
+        <v>5232.2999999999665</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -2241,14 +2231,14 @@
       </c>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G13" s="48">
         <v>4969.9999999999991</v>
       </c>
       <c r="H13" s="50">
         <f t="shared" si="1"/>
-        <v>-2053.8000000000079</v>
+        <v>-798.69999999999163</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="2"/>
@@ -2310,18 +2300,18 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G14" s="44">
         <v>-5150.0000000000055</v>
       </c>
       <c r="H14" s="45">
         <f t="shared" si="1"/>
-        <v>1760.3999999999969</v>
+        <v>505.29999999998051</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="2"/>
-        <v>6193.9999999999718</v>
+        <v>4938.8999999999551</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -2379,18 +2369,18 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G15" s="12">
         <v>-4239.9999999999945</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>3243.7000000000148</v>
+        <v>1988.5999999999981</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="2"/>
-        <v>9437.6999999999862</v>
+        <v>6927.4999999999527</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -2448,18 +2438,18 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G16" s="9">
         <v>-4120.0000000000045</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="1"/>
-        <v>3439.2999999999988</v>
+        <v>2184.1999999999821</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="2"/>
-        <v>12876.999999999985</v>
+        <v>9111.6999999999352</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -2517,18 +2507,18 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G17" s="12">
         <v>4109.9999999999991</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="1"/>
-        <v>-3455.6000000000072</v>
+        <v>-2200.4999999999905</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="2"/>
-        <v>9421.3999999999778</v>
+        <v>6911.1999999999443</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -2586,18 +2576,18 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G18" s="9">
         <v>-4019.9999999999959</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>3602.3000000000129</v>
+        <v>2347.1999999999962</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="2"/>
-        <v>13023.69999999999</v>
+        <v>9258.3999999999396</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -2655,18 +2645,18 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G19" s="12">
         <v>-3670.0000000000018</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="1"/>
-        <v>4172.8000000000038</v>
+        <v>2917.6999999999866</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="2"/>
-        <v>17196.499999999993</v>
+        <v>12176.099999999926</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -2724,18 +2714,18 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G20" s="9">
         <v>3230.0000000000041</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>-4890</v>
+        <v>-3634.8999999999833</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="2"/>
-        <v>12306.499999999993</v>
+        <v>8541.1999999999425</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -2793,18 +2783,18 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G21" s="12">
         <v>3230.0000000000041</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="1"/>
-        <v>-4890</v>
+        <v>-3634.8999999999833</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="2"/>
-        <v>7416.4999999999927</v>
+        <v>4906.2999999999593</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -2862,18 +2852,18 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G22" s="9">
         <v>3250</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="1"/>
-        <v>-4857.400000000006</v>
+        <v>-3602.2999999999893</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="2"/>
-        <v>2559.0999999999867</v>
+        <v>1303.99999999997</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -2931,14 +2921,14 @@
       </c>
       <c r="F23" s="49">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G23" s="48">
         <v>1620.0000000000045</v>
       </c>
       <c r="H23" s="50">
         <f t="shared" si="1"/>
-        <v>-7514.2999999999984</v>
+        <v>-6259.1999999999816</v>
       </c>
       <c r="I23" s="51">
         <f t="shared" si="2"/>
@@ -3000,18 +2990,18 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G24" s="44">
         <v>1620.0000000000045</v>
       </c>
       <c r="H24" s="45">
         <f t="shared" si="1"/>
-        <v>-7514.2999999999984</v>
+        <v>-6259.1999999999816</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="2"/>
-        <v>-12469.500000000011</v>
+        <v>-11214.399999999994</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -3069,14 +3059,14 @@
       </c>
       <c r="F25" s="49">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G25" s="48">
         <v>-2319.9999999999932</v>
       </c>
       <c r="H25" s="50">
         <f t="shared" si="1"/>
-        <v>6373.3000000000175</v>
+        <v>5118.2000000000007</v>
       </c>
       <c r="I25" s="51">
         <f t="shared" si="2"/>
@@ -3138,18 +3128,18 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G26" s="44">
         <v>-2319.9999999999932</v>
       </c>
       <c r="H26" s="45">
         <f t="shared" si="1"/>
-        <v>6373.3000000000175</v>
+        <v>5118.2000000000007</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="2"/>
-        <v>277.10000000002401</v>
+        <v>-977.99999999999272</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -3207,18 +3197,18 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G27" s="12">
         <v>-2459.9999999999936</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>6145.1000000000158</v>
+        <v>4890</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="2"/>
-        <v>6422.2000000000398</v>
+        <v>3912.0000000000073</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -3276,18 +3266,18 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G28" s="9">
         <v>1640.0000000000005</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="1"/>
-        <v>-7481.7000000000053</v>
+        <v>-6226.5999999999885</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="2"/>
-        <v>-1059.4999999999654</v>
+        <v>-2314.5999999999813</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -3345,14 +3335,14 @@
       </c>
       <c r="F29" s="49">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G29" s="48">
         <v>1620.0000000000045</v>
       </c>
       <c r="H29" s="50">
         <f t="shared" si="1"/>
-        <v>-7514.2999999999984</v>
+        <v>-6259.1999999999816</v>
       </c>
       <c r="I29" s="51">
         <f t="shared" si="2"/>
@@ -3414,18 +3404,18 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G30" s="44">
         <v>1379.9999999999955</v>
       </c>
       <c r="H30" s="45">
         <f t="shared" si="1"/>
-        <v>-7905.5000000000127</v>
+        <v>-6650.3999999999969</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="2"/>
-        <v>-16479.299999999974</v>
+        <v>-15224.199999999961</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
@@ -3483,18 +3473,18 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G31" s="12">
         <v>950.00000000000284</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="1"/>
-        <v>-8606.4000000000015</v>
+        <v>-7351.2999999999847</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="2"/>
-        <v>-25085.699999999975</v>
+        <v>-22575.499999999945</v>
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
@@ -3552,18 +3542,18 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G32" s="9">
         <v>670.00000000000171</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="1"/>
-        <v>-9062.8000000000029</v>
+        <v>-7807.6999999999862</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="2"/>
-        <v>-34148.499999999978</v>
+        <v>-30383.199999999932</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
@@ -3621,18 +3611,18 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G33" s="12">
         <v>319.99999999999318</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="1"/>
-        <v>-9633.3000000000175</v>
+        <v>-8378.2000000000007</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="2"/>
-        <v>-43781.799999999996</v>
+        <v>-38761.399999999936</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
@@ -3690,18 +3680,18 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ref="F34:F66" si="10">$W$1</f>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G34" s="9">
         <v>-950.00000000000284</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="1"/>
-        <v>8606.4000000000015</v>
+        <v>7351.2999999999847</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="2"/>
-        <v>-35175.399999999994</v>
+        <v>-31410.099999999951</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
@@ -3759,18 +3749,18 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G35" s="12">
         <v>-969.99999999999886</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="1"/>
-        <v>8573.8000000000084</v>
+        <v>7318.6999999999907</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" ref="I35:I61" si="11">I34+H35</f>
-        <v>-26601.599999999984</v>
+        <v>-24091.399999999961</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
@@ -3828,18 +3818,18 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G36" s="9">
         <v>1819.9999999999932</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="1"/>
-        <v>-7188.3000000000175</v>
+        <v>-5933.2000000000007</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="11"/>
-        <v>-33789.9</v>
+        <v>-30024.599999999962</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
@@ -3897,18 +3887,18 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G37" s="12">
         <v>2069.9999999999932</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="1"/>
-        <v>-6780.8000000000175</v>
+        <v>-5525.7000000000007</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="11"/>
-        <v>-40570.700000000019</v>
+        <v>-35550.299999999959</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
@@ -3966,18 +3956,18 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G38" s="9">
         <v>-2829.9999999999982</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="1"/>
-        <v>5542.0000000000082</v>
+        <v>4286.8999999999924</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="11"/>
-        <v>-35028.700000000012</v>
+        <v>-31263.399999999965</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
@@ -4034,18 +4024,18 @@
       </c>
       <c r="F39" s="49">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G39" s="48">
         <v>-8039.9999999999782</v>
       </c>
       <c r="H39" s="50">
         <f t="shared" si="1"/>
-        <v>17359.500000000055</v>
+        <v>13594.200000000004</v>
       </c>
       <c r="I39" s="51">
         <f t="shared" si="11"/>
-        <v>-17669.199999999957</v>
+        <v>-17669.199999999961</v>
       </c>
       <c r="J39" s="52">
         <f t="shared" si="3"/>
@@ -4102,18 +4092,18 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G40" s="44">
         <v>-980.00000000000398</v>
       </c>
       <c r="H40" s="45">
         <f t="shared" si="1"/>
-        <v>8557.5</v>
+        <v>7302.3999999999833</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="11"/>
-        <v>-9111.6999999999571</v>
+        <v>-10366.799999999977</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
@@ -4170,18 +4160,18 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G41" s="12">
         <v>-1069.9999999999932</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="1"/>
-        <v>8410.8000000000175</v>
+        <v>7155.7000000000007</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" si="11"/>
-        <v>-700.89999999993961</v>
+        <v>-3211.0999999999767</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
@@ -4238,18 +4228,18 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G42" s="9">
         <v>-620.00000000000455</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="1"/>
-        <v>9144.2999999999975</v>
+        <v>7889.1999999999816</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" si="11"/>
-        <v>8443.4000000000578</v>
+        <v>4678.1000000000049</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
@@ -4306,18 +4296,18 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G43" s="12">
         <v>1760.000000000005</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="1"/>
-        <v>-7286.0999999999976</v>
+        <v>-6030.9999999999809</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="11"/>
-        <v>1157.3000000000602</v>
+        <v>-1352.899999999976</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
@@ -4374,18 +4364,18 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G44" s="9">
         <v>2480.0000000000041</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="1"/>
-        <v>-6112.5</v>
+        <v>-4857.3999999999833</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="11"/>
-        <v>-4955.1999999999398</v>
+        <v>-6210.2999999999593</v>
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
@@ -4442,18 +4432,18 @@
       </c>
       <c r="F45" s="49">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G45" s="48">
         <v>3120.0000000000045</v>
       </c>
       <c r="H45" s="50">
         <f t="shared" si="1"/>
-        <v>-5069.2999999999993</v>
+        <v>-3814.1999999999821</v>
       </c>
       <c r="I45" s="51">
         <f t="shared" si="11"/>
-        <v>-10024.499999999938</v>
+        <v>-10024.499999999942</v>
       </c>
       <c r="J45" s="52">
         <f t="shared" si="3"/>
@@ -4510,18 +4500,18 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G46" s="44">
         <v>-2769.9999999999959</v>
       </c>
       <c r="H46" s="45">
         <f t="shared" si="1"/>
-        <v>5639.8000000000129</v>
+        <v>4384.6999999999962</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="11"/>
-        <v>-4384.6999999999252</v>
+        <v>-5639.7999999999456</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
@@ -4578,18 +4568,18 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G47" s="12">
         <v>-2000</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="1"/>
-        <v>6894.9000000000051</v>
+        <v>5639.7999999999893</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="11"/>
-        <v>2510.2000000000799</v>
+        <v>4.3655745685100555E-11</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
@@ -4646,18 +4636,18 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G48" s="9">
         <v>1939.9999999999977</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" si="1"/>
-        <v>-6992.7000000000098</v>
+        <v>-5737.5999999999931</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" si="11"/>
-        <v>-4482.49999999993</v>
+        <v>-5737.5999999999494</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
@@ -4714,18 +4704,18 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G49" s="12">
         <v>-1989.999999999995</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="1"/>
-        <v>6911.2000000000144</v>
+        <v>5656.0999999999985</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="11"/>
-        <v>2428.7000000000844</v>
+        <v>-81.499999999950887</v>
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
@@ -4782,18 +4772,18 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G50" s="9">
         <v>-2989.999999999995</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" si="1"/>
-        <v>5281.2000000000144</v>
+        <v>4026.0999999999981</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" si="11"/>
-        <v>7709.9000000000988</v>
+        <v>3944.6000000000472</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
@@ -4850,18 +4840,18 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G51" s="12">
         <v>-3329.9999999999982</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" si="1"/>
-        <v>4727.0000000000082</v>
+        <v>3471.8999999999924</v>
       </c>
       <c r="I51" s="21">
         <f t="shared" si="11"/>
-        <v>12436.900000000107</v>
+        <v>7416.50000000004</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
@@ -4918,18 +4908,18 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G52" s="9">
         <v>-479.99999999998977</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" si="1"/>
-        <v>-21092.199999999997</v>
+        <v>-18581.999999999964</v>
       </c>
       <c r="I52" s="21">
         <f t="shared" si="11"/>
-        <v>-8655.2999999998901</v>
+        <v>-11165.499999999924</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
@@ -4986,18 +4976,18 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G53" s="12">
         <v>-1629.9999999999955</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" si="1"/>
-        <v>7498.0000000000127</v>
+        <v>6242.8999999999969</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="11"/>
-        <v>-1157.2999999998774</v>
+        <v>-4922.5999999999267</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
@@ -5054,18 +5044,18 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G54" s="9">
         <v>-1640.0000000000005</v>
       </c>
       <c r="H54" s="10">
         <f t="shared" si="1"/>
-        <v>7481.7000000000053</v>
+        <v>6226.5999999999885</v>
       </c>
       <c r="I54" s="21">
         <f t="shared" si="11"/>
-        <v>6324.4000000001279</v>
+        <v>1304.0000000000618</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
@@ -5122,18 +5112,18 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G55" s="12">
         <v>3429.9999999999927</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" si="1"/>
-        <v>-4564.0000000000182</v>
+        <v>-3308.9000000000015</v>
       </c>
       <c r="I55" s="21">
         <f t="shared" si="11"/>
-        <v>1760.4000000001097</v>
+        <v>-2004.8999999999396</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
@@ -5190,18 +5180,18 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G56" s="9">
         <v>3079.9999999999982</v>
       </c>
       <c r="H56" s="10">
         <f t="shared" si="1"/>
-        <v>-5134.5000000000082</v>
+        <v>-3879.3999999999924</v>
       </c>
       <c r="I56" s="21">
         <f t="shared" si="11"/>
-        <v>-3374.0999999998985</v>
+        <v>-5884.299999999932</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
@@ -5258,18 +5248,18 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G57" s="12">
         <v>-3219.9999999999991</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" si="1"/>
-        <v>4906.3000000000075</v>
+        <v>3651.1999999999916</v>
       </c>
       <c r="I57" s="21">
         <f t="shared" si="11"/>
-        <v>1532.200000000109</v>
+        <v>-2233.0999999999403</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
@@ -5326,18 +5316,18 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G58" s="9">
         <v>-3700.0000000000027</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="1"/>
-        <v>4123.9000000000015</v>
+        <v>2868.7999999999852</v>
       </c>
       <c r="I58" s="21">
         <f t="shared" si="11"/>
-        <v>5656.1000000001104</v>
+        <v>635.70000000004484</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
@@ -5394,18 +5384,18 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G59" s="12">
         <v>-4590.0000000000036</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" si="1"/>
-        <v>2673.2000000000007</v>
+        <v>1418.0999999999842</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="11"/>
-        <v>8329.300000000112</v>
+        <v>2053.8000000000293</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
@@ -5462,18 +5452,18 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G60" s="9">
         <v>-5439.9999999999982</v>
       </c>
       <c r="H60" s="10">
         <f t="shared" si="1"/>
-        <v>1287.70000000001</v>
+        <v>32.599999999993514</v>
       </c>
       <c r="I60" s="21">
         <f t="shared" si="11"/>
-        <v>9617.0000000001219</v>
+        <v>2086.4000000000228</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
@@ -5530,18 +5520,18 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G61" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" si="1"/>
-        <v>4775.9000000000106</v>
+        <v>3520.7999999999938</v>
       </c>
       <c r="I61" s="21">
         <f t="shared" si="11"/>
-        <v>14392.900000000132</v>
+        <v>5607.2000000000171</v>
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
@@ -5598,18 +5588,18 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G62" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H62" s="10">
         <f>(F62-E62)*D62*1.63</f>
-        <v>-13072.600000000015</v>
+        <v>-11817.5</v>
       </c>
       <c r="I62" s="21">
         <f>I61+H62</f>
-        <v>1320.3000000001175</v>
+        <v>-6210.2999999999829</v>
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
@@ -5667,18 +5657,18 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G63" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H63" s="10">
         <f>(F63-E63)*D63*1.63</f>
-        <v>-13088.900000000001</v>
+        <v>-11833.799999999985</v>
       </c>
       <c r="I63" s="21">
         <f>I62+H63</f>
-        <v>-11768.599999999884</v>
+        <v>-18044.099999999969</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
@@ -5736,18 +5726,18 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G64" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H64" s="10">
         <f>(F64-E64)*D64*1.63</f>
-        <v>-12795.500000000013</v>
+        <v>-11540.399999999996</v>
       </c>
       <c r="I64" s="21">
         <f>I63+H64</f>
-        <v>-24564.099999999897</v>
+        <v>-29584.499999999964</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
@@ -5805,18 +5795,18 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G65" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H65" s="10">
         <f>(F65-E65)*D65*1.63</f>
-        <v>9519.2000000000062</v>
+        <v>8264.0999999999876</v>
       </c>
       <c r="I65" s="21">
         <f>I64+H65</f>
-        <v>-15044.89999999989</v>
+        <v>-21320.399999999976</v>
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
@@ -5873,18 +5863,18 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="10"/>
-        <v>67.989999999999995</v>
+        <v>68.760000000000005</v>
       </c>
       <c r="G66" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H66" s="10">
         <f>(F66-E66)*D66*1.63</f>
-        <v>5770.2000000000098</v>
+        <v>4515.0999999999931</v>
       </c>
       <c r="I66" s="21">
         <f>I65+H66</f>
-        <v>-9274.6999999998807</v>
+        <v>-16805.299999999981</v>
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
@@ -5925,12 +5915,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H66">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J66">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5949,8 +5939,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,7 +5986,7 @@
       </c>
       <c r="M1" s="34" cm="1">
         <f t="array" ref="M1">_xll.BDP(U2,"LAST_PRICE")</f>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="U1" t="s">
         <v>21</v>
@@ -6034,7 +6024,7 @@
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">_xll.BQL("UKEZ4 Comdty","px_settle()")</f>
-        <v>48.6</v>
+        <v>50.03</v>
       </c>
       <c r="U2" t="s">
         <v>16</v>
@@ -6198,15 +6188,15 @@
       </c>
       <c r="F8" s="25">
         <f t="shared" ref="F8:F58" si="1">$M$1</f>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G8" s="26">
         <f t="shared" si="0"/>
-        <v>107729.99999999996</v>
+        <v>114379.99999999999</v>
       </c>
       <c r="H8" s="27">
         <f>G8</f>
-        <v>107729.99999999996</v>
+        <v>114379.99999999999</v>
       </c>
       <c r="I8">
         <f>D8</f>
@@ -6231,15 +6221,15 @@
       </c>
       <c r="F9" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G9" s="26">
         <f t="shared" si="0"/>
-        <v>106684.99999999997</v>
+        <v>113335</v>
       </c>
       <c r="H9" s="27">
         <f>H8+G9</f>
-        <v>214414.99999999994</v>
+        <v>227715</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I55" si="2">I8+D9</f>
@@ -6264,15 +6254,15 @@
       </c>
       <c r="F10" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="0"/>
-        <v>-112384.99999999999</v>
+        <v>-119035.00000000001</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" ref="H10:H28" si="3">H9+G10</f>
-        <v>102029.99999999996</v>
+        <v>108679.99999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -6297,15 +6287,15 @@
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G11" s="26">
         <f t="shared" si="0"/>
-        <v>-46018</v>
+        <v>-48678.000000000007</v>
       </c>
       <c r="H11" s="27">
         <f t="shared" si="3"/>
-        <v>56011.999999999956</v>
+        <v>60001.999999999978</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -6330,15 +6320,15 @@
       </c>
       <c r="F12" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G12" s="26">
         <f t="shared" si="0"/>
-        <v>-21393.999999999996</v>
+        <v>-22724</v>
       </c>
       <c r="H12" s="27">
         <f t="shared" si="3"/>
-        <v>34617.999999999956</v>
+        <v>37277.999999999978</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -6363,15 +6353,15 @@
       </c>
       <c r="F13" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="0"/>
-        <v>-21260.999999999996</v>
+        <v>-22591</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="3"/>
-        <v>13356.99999999996</v>
+        <v>14686.999999999978</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
@@ -6402,15 +6392,15 @@
       </c>
       <c r="F14" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G14" s="26">
         <f t="shared" si="0"/>
-        <v>-21184.999999999996</v>
+        <v>-22515.000000000004</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="3"/>
-        <v>-7828.0000000000364</v>
+        <v>-7828.0000000000255</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
@@ -6467,15 +6457,15 @@
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G15" s="26">
         <f t="shared" si="0"/>
-        <v>-42180.000000000007</v>
+        <v>-44840.000000000015</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="3"/>
-        <v>-50008.000000000044</v>
+        <v>-52668.000000000044</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
@@ -6532,15 +6522,15 @@
       </c>
       <c r="F16" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G16" s="26">
         <f t="shared" si="0"/>
-        <v>-41343.999999999985</v>
+        <v>-44003.999999999993</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="3"/>
-        <v>-91352.000000000029</v>
+        <v>-96672.000000000029</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -6597,15 +6587,15 @@
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="0"/>
-        <v>-43282</v>
+        <v>-45942.000000000015</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" si="3"/>
-        <v>-134634.00000000003</v>
+        <v>-142614.00000000006</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -6662,15 +6652,15 @@
       </c>
       <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="0"/>
-        <v>22951.999999999996</v>
+        <v>24282.000000000004</v>
       </c>
       <c r="H18" s="27">
         <f t="shared" si="3"/>
-        <v>-111682.00000000003</v>
+        <v>-118332.00000000006</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -6727,15 +6717,15 @@
       </c>
       <c r="F19" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G19" s="26">
         <f t="shared" si="0"/>
-        <v>23236.999999999993</v>
+        <v>24567</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="3"/>
-        <v>-88445.000000000029</v>
+        <v>-93765.000000000058</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
@@ -6792,15 +6782,15 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G20" s="26">
         <f t="shared" si="0"/>
-        <v>-44953.999999999993</v>
+        <v>-47614.000000000007</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="3"/>
-        <v>-133399.00000000003</v>
+        <v>-141379.00000000006</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
@@ -6857,15 +6847,15 @@
       </c>
       <c r="F21" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G21" s="26">
         <f t="shared" si="0"/>
-        <v>-22096.999999999993</v>
+        <v>-23426.999999999996</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="3"/>
-        <v>-155496.00000000003</v>
+        <v>-164806.00000000006</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
@@ -6922,15 +6912,15 @@
       </c>
       <c r="F22" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G22" s="26">
         <f t="shared" si="0"/>
-        <v>22951.999999999996</v>
+        <v>24282.000000000004</v>
       </c>
       <c r="H22" s="27">
         <f t="shared" si="3"/>
-        <v>-132544.00000000003</v>
+        <v>-140524.00000000006</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
@@ -6987,15 +6977,15 @@
       </c>
       <c r="F23" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="0"/>
-        <v>23236.999999999993</v>
+        <v>24567</v>
       </c>
       <c r="H23" s="27">
         <f t="shared" si="3"/>
-        <v>-109307.00000000003</v>
+        <v>-115957.00000000006</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
@@ -7052,15 +7042,15 @@
       </c>
       <c r="F24" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G24" s="26">
         <f t="shared" si="0"/>
-        <v>-21545.999999999993</v>
+        <v>-22876</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="3"/>
-        <v>-130853.00000000003</v>
+        <v>-138833.00000000006</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
@@ -7117,15 +7107,15 @@
       </c>
       <c r="F25" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G25" s="26">
         <f t="shared" si="0"/>
-        <v>-21090.000000000004</v>
+        <v>-22420.000000000007</v>
       </c>
       <c r="H25" s="27">
         <f t="shared" si="3"/>
-        <v>-151943.00000000003</v>
+        <v>-161253.00000000006</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
@@ -7182,15 +7172,15 @@
       </c>
       <c r="F26" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G26" s="26">
         <f t="shared" si="0"/>
-        <v>-41571.999999999993</v>
+        <v>-44232</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="3"/>
-        <v>-193515.00000000003</v>
+        <v>-205485.00000000006</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -7247,15 +7237,15 @@
       </c>
       <c r="F27" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G27" s="26">
         <f t="shared" si="0"/>
-        <v>-36784</v>
+        <v>-39444.000000000007</v>
       </c>
       <c r="H27" s="27">
         <f t="shared" si="3"/>
-        <v>-230299.00000000003</v>
+        <v>-244929.00000000006</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
@@ -7312,15 +7302,15 @@
       </c>
       <c r="F28" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G28" s="26">
         <f t="shared" si="0"/>
-        <v>-18867</v>
+        <v>-20197.000000000004</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="3"/>
-        <v>-249166.00000000003</v>
+        <v>-265126.00000000006</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
@@ -7377,15 +7367,15 @@
       </c>
       <c r="F29" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G29" s="26">
         <f t="shared" si="0"/>
-        <v>-13148.000000000004</v>
+        <v>-14478.000000000007</v>
       </c>
       <c r="H29" s="27">
         <f t="shared" ref="H29:H47" si="4">H28+G29</f>
-        <v>-262314.00000000006</v>
+        <v>-279604.00000000006</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
@@ -7442,15 +7432,15 @@
       </c>
       <c r="F30" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G30" s="26">
         <f t="shared" si="0"/>
-        <v>-12900.999999999998</v>
+        <v>-14231.000000000004</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="4"/>
-        <v>-275215.00000000006</v>
+        <v>-293835.00000000006</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
@@ -7507,15 +7497,15 @@
       </c>
       <c r="F31" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G31" s="26">
         <f t="shared" si="0"/>
-        <v>-13204.999999999991</v>
+        <v>-14534.999999999996</v>
       </c>
       <c r="H31" s="27">
         <f t="shared" si="4"/>
-        <v>-288420.00000000006</v>
+        <v>-308370.00000000006</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
@@ -7572,15 +7562,15 @@
       </c>
       <c r="F32" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G32" s="26">
         <f t="shared" si="0"/>
-        <v>-25232.000000000004</v>
+        <v>-27892.000000000011</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="4"/>
-        <v>-313652.00000000006</v>
+        <v>-336262.00000000006</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -7637,15 +7627,15 @@
       </c>
       <c r="F33" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G33" s="26">
         <f t="shared" si="0"/>
-        <v>20443.999999999982</v>
+        <v>23103.999999999993</v>
       </c>
       <c r="H33" s="27">
         <f t="shared" si="4"/>
-        <v>-293208.00000000006</v>
+        <v>-313158.00000000006</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
@@ -7704,15 +7694,15 @@
       </c>
       <c r="F34" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G34" s="26">
         <f t="shared" ref="G34:G55" si="5">(F34-E34)*D34*$V$1</f>
-        <v>10583</v>
+        <v>11913.000000000005</v>
       </c>
       <c r="H34" s="27">
         <f t="shared" si="4"/>
-        <v>-282625.00000000006</v>
+        <v>-301245.00000000006</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
@@ -7771,15 +7761,15 @@
       </c>
       <c r="F35" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G35" s="26">
         <f t="shared" si="5"/>
-        <v>9557.0000000000018</v>
+        <v>10887.000000000007</v>
       </c>
       <c r="H35" s="27">
         <f t="shared" si="4"/>
-        <v>-273068.00000000006</v>
+        <v>-290358.00000000006</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
@@ -7838,15 +7828,15 @@
       </c>
       <c r="F36" s="25">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G36" s="26">
         <f t="shared" si="5"/>
-        <v>-8892</v>
+        <v>-10222.000000000005</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="4"/>
-        <v>-281960.00000000006</v>
+        <v>-300580.00000000006</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
@@ -7903,15 +7893,15 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G37" s="36">
         <f t="shared" si="5"/>
-        <v>-8892</v>
+        <v>-10222.000000000005</v>
       </c>
       <c r="H37" s="27">
         <f t="shared" si="4"/>
-        <v>-290852.00000000006</v>
+        <v>-310802.00000000006</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
@@ -7968,15 +7958,15 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G38" s="26">
         <f t="shared" si="5"/>
-        <v>-8873.0000000000036</v>
+        <v>-10203.000000000007</v>
       </c>
       <c r="H38" s="27">
         <f t="shared" si="4"/>
-        <v>-299725.00000000006</v>
+        <v>-321005.00000000006</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
@@ -8034,15 +8024,15 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G39" s="36">
         <f t="shared" si="5"/>
-        <v>-8967.9999999999982</v>
+        <v>-10298.000000000004</v>
       </c>
       <c r="H39" s="27">
         <f t="shared" si="4"/>
-        <v>-308693.00000000006</v>
+        <v>-331303.00000000006</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
@@ -8099,15 +8089,15 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G40" s="36">
         <f t="shared" si="5"/>
-        <v>-17441.999999999985</v>
+        <v>-20101.999999999996</v>
       </c>
       <c r="H40" s="27">
         <f t="shared" si="4"/>
-        <v>-326135.00000000006</v>
+        <v>-351405.00000000006</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
@@ -8164,15 +8154,15 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G41" s="26">
         <f t="shared" si="5"/>
-        <v>13109.999999999984</v>
+        <v>15769.999999999993</v>
       </c>
       <c r="H41" s="27">
         <f t="shared" si="4"/>
-        <v>-313025.00000000006</v>
+        <v>-335635.00000000006</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
@@ -8229,15 +8219,15 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G42" s="26">
         <f t="shared" si="5"/>
-        <v>6079.9999999999918</v>
+        <v>7409.9999999999973</v>
       </c>
       <c r="H42" s="27">
         <f t="shared" si="4"/>
-        <v>-306945.00000000006</v>
+        <v>-328225.00000000006</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
@@ -8294,15 +8284,15 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G43" s="26">
         <f t="shared" si="5"/>
-        <v>11323.999999999987</v>
+        <v>13983.999999999998</v>
       </c>
       <c r="H43" s="27">
         <f t="shared" si="4"/>
-        <v>-295621.00000000006</v>
+        <v>-314241.00000000006</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
@@ -8359,15 +8349,15 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G44" s="26">
         <f t="shared" si="5"/>
-        <v>5091.9999999999991</v>
+        <v>6422.0000000000045</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="4"/>
-        <v>-290529.00000000006</v>
+        <v>-307819.00000000006</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
@@ -8424,15 +8414,15 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G45" s="26">
         <f t="shared" si="5"/>
-        <v>12273.999999999987</v>
+        <v>14933.999999999998</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="4"/>
-        <v>-278255.00000000006</v>
+        <v>-292885.00000000006</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
@@ -8489,15 +8479,15 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G46" s="26">
         <f t="shared" si="5"/>
-        <v>5528.9999999999927</v>
+        <v>6858.9999999999991</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="4"/>
-        <v>-272726.00000000006</v>
+        <v>-286026.00000000006</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
@@ -8554,15 +8544,15 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G47" s="26">
         <f t="shared" si="5"/>
-        <v>10107.999999999985</v>
+        <v>12767.999999999998</v>
       </c>
       <c r="H47" s="27">
         <f t="shared" si="4"/>
-        <v>-262618.00000000006</v>
+        <v>-273258.00000000006</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
@@ -8619,15 +8609,15 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G48" s="26">
         <f t="shared" si="5"/>
-        <v>-38.00000000000594</v>
+        <v>1291.9999999999995</v>
       </c>
       <c r="H48" s="27">
         <f t="shared" ref="H48:H53" si="6">H47+G48</f>
-        <v>-262656.00000000006</v>
+        <v>-271966.00000000006</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
@@ -8684,15 +8674,15 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G49" s="26">
         <f t="shared" si="5"/>
-        <v>-798.00000000000318</v>
+        <v>532.00000000000216</v>
       </c>
       <c r="H49" s="27">
         <f t="shared" si="6"/>
-        <v>-263454.00000000006</v>
+        <v>-271434.00000000006</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
@@ -8749,15 +8739,15 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G50" s="26">
         <f t="shared" si="5"/>
-        <v>-1140.0000000000025</v>
+        <v>-2470.0000000000082</v>
       </c>
       <c r="H50" s="27">
         <f t="shared" si="6"/>
-        <v>-264594.00000000006</v>
+        <v>-273904.00000000006</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
@@ -8814,15 +8804,15 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G51" s="26">
         <f t="shared" si="5"/>
-        <v>-2090.0000000000023</v>
+        <v>-3420.0000000000082</v>
       </c>
       <c r="H51" s="27">
         <f t="shared" si="6"/>
-        <v>-266684.00000000006</v>
+        <v>-277324.00000000006</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
@@ -8879,15 +8869,15 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G52" s="26">
         <f t="shared" si="5"/>
-        <v>-7296.0000000000064</v>
+        <v>-9956.0000000000164</v>
       </c>
       <c r="H52" s="27">
         <f t="shared" si="6"/>
-        <v>-273980.00000000006</v>
+        <v>-287280.00000000006</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
@@ -8944,15 +8934,15 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G53" s="36">
         <f t="shared" si="5"/>
-        <v>-4123.0000000000036</v>
+        <v>-5453.0000000000082</v>
       </c>
       <c r="H53" s="27">
         <f t="shared" si="6"/>
-        <v>-278103.00000000006</v>
+        <v>-292733.00000000006</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
@@ -9009,15 +8999,15 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G54" s="36">
         <f t="shared" si="5"/>
-        <v>-4730.99999999999</v>
+        <v>-6060.9999999999955</v>
       </c>
       <c r="H54" s="27">
         <f>H53+G54</f>
-        <v>-282834.00000000006</v>
+        <v>-298794.00000000006</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
@@ -9074,15 +9064,15 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G55" s="36">
         <f t="shared" si="5"/>
-        <v>-5680.99999999999</v>
+        <v>-7010.9999999999955</v>
       </c>
       <c r="H55" s="27">
         <f>H54+G55</f>
-        <v>-288515.00000000006</v>
+        <v>-305805.00000000006</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
@@ -9122,16 +9112,16 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="66">
+      <c r="A56" s="29">
         <v>45456</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="69">
+      <c r="D56">
         <v>1000</v>
       </c>
       <c r="E56" s="35">
@@ -9139,15 +9129,15 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G56" s="26">
         <f t="shared" ref="G56:G58" si="7">(F56-E56)*D56*$V$1</f>
-        <v>1007.0000000000022</v>
+        <v>2337.0000000000077</v>
       </c>
       <c r="H56" s="27">
         <f t="shared" ref="H56:H58" si="8">H55+G56</f>
-        <v>-287508.00000000006</v>
+        <v>-303468.00000000006</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56:I58" si="9">I55+D56</f>
@@ -9187,16 +9177,16 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
+      <c r="A57" s="29">
         <v>45456</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="69">
+      <c r="D57">
         <v>1000</v>
       </c>
       <c r="E57" s="35">
@@ -9204,15 +9194,15 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G57" s="26">
         <f t="shared" si="7"/>
-        <v>1158.9999999999989</v>
+        <v>2489.0000000000041</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="8"/>
-        <v>-286349.00000000006</v>
+        <v>-300979.00000000006</v>
       </c>
       <c r="I57">
         <f t="shared" si="9"/>
@@ -9252,16 +9242,16 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="66">
+      <c r="A58" s="29">
         <v>45457</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="68" t="s">
+      <c r="C58" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="70">
+      <c r="D58">
         <v>1000</v>
       </c>
       <c r="E58" s="35">
@@ -9269,15 +9259,15 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="1"/>
-        <v>49.33</v>
+        <v>50.03</v>
       </c>
       <c r="G58" s="36">
         <f t="shared" si="7"/>
-        <v>246.99999999999136</v>
+        <v>1576.9999999999966</v>
       </c>
       <c r="H58" s="27">
         <f t="shared" si="8"/>
-        <v>-286102.00000000006</v>
+        <v>-299402.00000000006</v>
       </c>
       <c r="I58">
         <f t="shared" si="9"/>
@@ -9317,26 +9307,21 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C47 C50:C58">
-    <cfRule type="containsText" dxfId="10" priority="41" operator="containsText" text="Buy">
+  <conditionalFormatting sqref="C2:C58">
+    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="Buy">
       <formula>NOT(ISERROR(SEARCH("Buy",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="42" operator="containsText" text="Sell">
+    <cfRule type="containsText" dxfId="8" priority="42" operator="containsText" text="Sell">
       <formula>NOT(ISERROR(SEARCH("Sell",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H58">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H58">
-    <cfRule type="cellIs" dxfId="7" priority="149" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:H58">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9699,17 +9684,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:I7">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I9">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10012,7 +9997,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10084,15 +10069,15 @@
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F8" si="0">$X$3</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G9" si="1">(F2-E2)*D2*0.9</f>
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="H2" s="20">
         <f>G2</f>
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="I2">
         <f>D2</f>
@@ -10149,15 +10134,15 @@
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" si="1"/>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="H3" s="20">
         <f t="shared" ref="H3:H9" si="2">H2+G3</f>
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="I3">
         <f>I2+D3</f>
@@ -10201,7 +10186,7 @@
       </c>
       <c r="X3" s="40">
         <f>[1]Daily_MTM_live!$J$44</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -10222,15 +10207,15 @@
       </c>
       <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="1"/>
-        <v>-36000</v>
+        <v>-18000</v>
       </c>
       <c r="H4" s="20">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I9" si="3">I3+D4</f>
@@ -10288,15 +10273,15 @@
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="1"/>
-        <v>20474.999999999989</v>
+        <v>11474.999999999987</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" si="2"/>
-        <v>38474.999999999985</v>
+        <v>20474.999999999985</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
@@ -10354,15 +10339,15 @@
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="1"/>
-        <v>6750</v>
+        <v>-2250</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="2"/>
-        <v>45224.999999999985</v>
+        <v>18224.999999999985</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
@@ -10420,15 +10405,15 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>40500</v>
+        <v>58500</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="2"/>
-        <v>85724.999999999985</v>
+        <v>76724.999999999985</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -10486,11 +10471,11 @@
       </c>
       <c r="F8" s="63">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="50">
         <f t="shared" si="1"/>
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="H8" s="64">
         <f t="shared" si="2"/>
@@ -10553,15 +10538,15 @@
       </c>
       <c r="F9" s="17">
         <f>X3</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="65">
         <f t="shared" si="1"/>
-        <v>5625</v>
+        <v>-3375</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="2"/>
-        <v>104849.99999999999</v>
+        <v>95849.999999999985</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
@@ -10610,7 +10595,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10781,7 +10766,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trade tracking.xlsx
+++ b/Trade tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carbon_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349E32A2-B9BE-4FA2-8603-6A65A9E06C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A5408-64D0-4908-8C14-872A4DFBED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B914D543-2248-43F6-AF53-C4900C919E6D}"/>
+    <workbookView xWindow="28740" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B914D543-2248-43F6-AF53-C4900C919E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="EU" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -516,7 +516,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,13 +583,84 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -649,21 +720,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -958,7 +1014,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
         <stp/>
         <stp>BDP|1633375409542931071|22</stp>
         <stp>MZBZ4 Comdty</stp>
@@ -968,7 +1024,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp>
-        <v>50.03</v>
+        <v>49.37</v>
         <stp/>
         <stp>BDP|16215067856613361158|22</stp>
         <stp>UKEZ4 Comdty</stp>
@@ -1025,7 +1081,7 @@
       <sheetData sheetId="5">
         <row r="60">
           <cell r="J60">
-            <v>36.369999999999997</v>
+            <v>36.520000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -1057,21 +1113,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:H58" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:H58" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}" name="Table2" displayName="Table2" ref="A1:H59" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H59" xr:uid="{17F4F97A-1B3E-4C0E-9D38-CE822BB8EE6C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="15" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="14" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{E903A528-E528-4624-A72F-3328230B4996}" name="Date" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{5BC4D747-A6F3-4A5F-B647-DC24A2C758FD}" name="Product" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{E5D9D98E-7DCE-45D9-AEFE-7B67AE075E5F}" name="Buy / Sell" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{C884F351-4536-4B1A-9525-9D0FA75412AF}" name="Qty" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{137DC6B2-7078-4228-B078-2B4288D873C7}" name="Trade Price" dataDxfId="23" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{16692CC8-E64F-453E-89C9-E1A948508809}" name="Settles" dataDxfId="22" dataCellStyle="Currency">
       <calculatedColumnFormula>$M$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="13" dataCellStyle="Currency">
+    <tableColumn id="10" xr3:uid="{379FCE18-89DD-4E7E-AD8E-DEEAA8D7B1D8}" name="PnL (AUD)" dataDxfId="21" dataCellStyle="Currency">
       <calculatedColumnFormula>(F2-E2)*D2*$V$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="12" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{B4352A43-E0F5-4E17-BE27-5BF46109072C}" name="Cumulative AUD" dataDxfId="20" dataCellStyle="Currency">
       <calculatedColumnFormula>H1+G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1397,11 +1453,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD8166-B638-4E3F-B9CC-94A254D7F131}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1505,7 @@
       </c>
       <c r="W1" s="1">
         <f>VLOOKUP(V1,$Y$1:$Z$3,2,FALSE)</f>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="Y1" t="s">
         <v>33</v>
@@ -1476,18 +1532,18 @@
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F33" si="0">$W$1</f>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G2" s="9">
         <v>-5599.9999999999945</v>
       </c>
       <c r="H2" s="10">
         <f>(F2-E2)*D2*1.63</f>
-        <v>-228.2000000000009</v>
+        <v>-2787.2999999999893</v>
       </c>
       <c r="I2" s="21">
         <f>H2</f>
-        <v>-228.2000000000009</v>
+        <v>-2787.2999999999893</v>
       </c>
       <c r="J2">
         <f>D2</f>
@@ -1535,18 +1591,18 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G3" s="12">
         <v>-5489.9999999999945</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H61" si="1">(F3-E3)*D3*1.63</f>
-        <v>-48.900000000001853</v>
+        <v>-2607.9999999999905</v>
       </c>
       <c r="I3" s="21">
         <f t="shared" ref="I3:I34" si="2">I2+H3</f>
-        <v>-277.10000000000275</v>
+        <v>-5395.2999999999793</v>
       </c>
       <c r="J3">
         <f>J2+D3</f>
@@ -1590,7 +1646,7 @@
       </c>
       <c r="Z3" cm="1">
         <f t="array" ref="Z3">_xll.BDP("MZBZ4 Comdty","LAST_PRICE")</f>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1611,18 +1667,18 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G4" s="9">
         <v>-5719.9999999999991</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
-        <v>-423.80000000000831</v>
+        <v>-2982.8999999999969</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" si="2"/>
-        <v>-700.900000000011</v>
+        <v>-8378.1999999999753</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J66" si="3">J3+D4</f>
@@ -1680,29 +1736,29 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G5" s="12">
         <v>-6420.0000000000018</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="1"/>
-        <v>-1564.8000000000129</v>
+        <v>-4123.9000000000015</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" si="2"/>
-        <v>-2265.7000000000239</v>
+        <v>-12502.099999999977</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
         <v>-4000</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L66" si="4">IF($C5="Sell",$D5,0)</f>
+        <f t="shared" ref="L5:L67" si="4">IF($C5="Sell",$D5,0)</f>
         <v>-1000</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:M66" si="5">IF($C5="Sell",$E5,0)</f>
+        <f t="shared" ref="M5:M67" si="5">IF($C5="Sell",$E5,0)</f>
         <v>67.8</v>
       </c>
       <c r="N5" s="33">
@@ -1714,11 +1770,11 @@
         <v>68.412499999999994</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q66" si="6">IF($C5="Buy",$D5,0)</f>
+        <f t="shared" ref="Q5:Q67" si="6">IF($C5="Buy",$D5,0)</f>
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R66" si="7">IF($C5="Buy",$E5,0)</f>
+        <f t="shared" ref="R5:R67" si="7">IF($C5="Buy",$E5,0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="33">
@@ -1749,18 +1805,18 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G6" s="9">
         <v>6549.9999999999973</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>1776.7000000000055</v>
+        <v>4335.7999999999938</v>
       </c>
       <c r="I6" s="21">
         <f t="shared" si="2"/>
-        <v>-489.00000000001842</v>
+        <v>-8166.2999999999829</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -1818,18 +1874,18 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G7" s="12">
         <v>6019.9999999999964</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="1"/>
-        <v>912.80000000000359</v>
+        <v>3471.8999999999924</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="2"/>
-        <v>423.79999999998518</v>
+        <v>-4694.3999999999905</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -1887,18 +1943,18 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G8" s="9">
         <v>6299.9999999999973</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>1369.2000000000055</v>
+        <v>3928.2999999999938</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="2"/>
-        <v>1792.9999999999907</v>
+        <v>-766.09999999999673</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -1956,18 +2012,18 @@
       </c>
       <c r="F9" s="49">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G9" s="48">
         <v>6209.9999999999936</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="1"/>
-        <v>1222.5</v>
+        <v>3781.5999999999885</v>
       </c>
       <c r="I9" s="51">
         <f t="shared" si="2"/>
-        <v>3015.4999999999909</v>
+        <v>3015.4999999999918</v>
       </c>
       <c r="J9" s="52">
         <f t="shared" si="3"/>
@@ -2025,18 +2081,18 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G10" s="44">
         <v>6329.9999999999982</v>
       </c>
       <c r="H10" s="45">
         <f t="shared" si="1"/>
-        <v>1418.1000000000074</v>
+        <v>3977.1999999999962</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="2"/>
-        <v>4433.5999999999985</v>
+        <v>6992.699999999988</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -2093,18 +2149,18 @@
       </c>
       <c r="F11" s="49">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G11" s="48">
         <v>-5450.0000000000027</v>
       </c>
       <c r="H11" s="50">
         <f t="shared" si="1"/>
-        <v>16.299999999985175</v>
+        <v>-2542.8000000000034</v>
       </c>
       <c r="I11" s="51">
         <f t="shared" si="2"/>
-        <v>4449.8999999999833</v>
+        <v>4449.8999999999851</v>
       </c>
       <c r="J11" s="52">
         <f t="shared" si="3"/>
@@ -2162,18 +2218,18 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G12" s="44">
         <v>-4980.0000000000036</v>
       </c>
       <c r="H12" s="45">
         <f t="shared" si="1"/>
-        <v>782.39999999998327</v>
+        <v>-1776.7000000000055</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="2"/>
-        <v>5232.2999999999665</v>
+        <v>2673.1999999999798</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -2231,18 +2287,18 @@
       </c>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G13" s="48">
         <v>4969.9999999999991</v>
       </c>
       <c r="H13" s="50">
         <f t="shared" si="1"/>
-        <v>-798.69999999999163</v>
+        <v>1760.3999999999969</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="2"/>
-        <v>4433.5999999999749</v>
+        <v>4433.5999999999767</v>
       </c>
       <c r="J13" s="52">
         <f t="shared" si="3"/>
@@ -2300,18 +2356,18 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G14" s="44">
         <v>-5150.0000000000055</v>
       </c>
       <c r="H14" s="45">
         <f t="shared" si="1"/>
-        <v>505.29999999998051</v>
+        <v>-2053.8000000000079</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="2"/>
-        <v>4938.8999999999551</v>
+        <v>2379.7999999999688</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -2369,18 +2425,18 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G15" s="12">
         <v>-4239.9999999999945</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>1988.5999999999981</v>
+        <v>-570.49999999999068</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="2"/>
-        <v>6927.4999999999527</v>
+        <v>1809.2999999999781</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -2438,18 +2494,18 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G16" s="9">
         <v>-4120.0000000000045</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="1"/>
-        <v>2184.1999999999821</v>
+        <v>-374.90000000000646</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="2"/>
-        <v>9111.6999999999352</v>
+        <v>1434.3999999999717</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -2507,18 +2563,18 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G17" s="12">
         <v>4109.9999999999991</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="1"/>
-        <v>-2200.4999999999905</v>
+        <v>358.59999999999815</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="2"/>
-        <v>6911.1999999999443</v>
+        <v>1792.9999999999698</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -2576,18 +2632,18 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G18" s="9">
         <v>-4019.9999999999959</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>2347.1999999999962</v>
+        <v>-211.89999999999259</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="2"/>
-        <v>9258.3999999999396</v>
+        <v>1581.0999999999772</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -2645,18 +2701,18 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G19" s="12">
         <v>-3670.0000000000018</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="1"/>
-        <v>2917.6999999999866</v>
+        <v>358.59999999999815</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="2"/>
-        <v>12176.099999999926</v>
+        <v>1939.6999999999753</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -2714,18 +2770,18 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G20" s="9">
         <v>3230.0000000000041</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>-3634.8999999999833</v>
+        <v>-1075.7999999999943</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="2"/>
-        <v>8541.1999999999425</v>
+        <v>863.89999999998099</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -2783,18 +2839,18 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G21" s="12">
         <v>3230.0000000000041</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="1"/>
-        <v>-3634.8999999999833</v>
+        <v>-1075.7999999999943</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="2"/>
-        <v>4906.2999999999593</v>
+        <v>-211.90000000001328</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -2852,18 +2908,18 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G22" s="9">
         <v>3250</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="1"/>
-        <v>-3602.2999999999893</v>
+        <v>-1043.200000000001</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="2"/>
-        <v>1303.99999999997</v>
+        <v>-1255.1000000000142</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -2921,18 +2977,18 @@
       </c>
       <c r="F23" s="49">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G23" s="48">
         <v>1620.0000000000045</v>
       </c>
       <c r="H23" s="50">
         <f t="shared" si="1"/>
-        <v>-6259.1999999999816</v>
+        <v>-3700.0999999999931</v>
       </c>
       <c r="I23" s="51">
         <f t="shared" si="2"/>
-        <v>-4955.2000000000116</v>
+        <v>-4955.2000000000071</v>
       </c>
       <c r="J23" s="52">
         <f t="shared" si="3"/>
@@ -2990,18 +3046,18 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G24" s="44">
         <v>1620.0000000000045</v>
       </c>
       <c r="H24" s="45">
         <f t="shared" si="1"/>
-        <v>-6259.1999999999816</v>
+        <v>-3700.0999999999931</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="2"/>
-        <v>-11214.399999999994</v>
+        <v>-8655.2999999999993</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -3059,18 +3115,18 @@
       </c>
       <c r="F25" s="49">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G25" s="48">
         <v>-2319.9999999999932</v>
       </c>
       <c r="H25" s="50">
         <f t="shared" si="1"/>
-        <v>5118.2000000000007</v>
+        <v>2559.1000000000117</v>
       </c>
       <c r="I25" s="51">
         <f t="shared" si="2"/>
-        <v>-6096.1999999999935</v>
+        <v>-6096.199999999988</v>
       </c>
       <c r="J25" s="52">
         <f t="shared" si="3"/>
@@ -3128,18 +3184,18 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G26" s="44">
         <v>-2319.9999999999932</v>
       </c>
       <c r="H26" s="45">
         <f t="shared" si="1"/>
-        <v>5118.2000000000007</v>
+        <v>2559.1000000000117</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="2"/>
-        <v>-977.99999999999272</v>
+        <v>-3537.0999999999763</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -3197,18 +3253,18 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G27" s="12">
         <v>-2459.9999999999936</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>4890</v>
+        <v>2330.900000000011</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="2"/>
-        <v>3912.0000000000073</v>
+        <v>-1206.1999999999653</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -3266,18 +3322,18 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G28" s="9">
         <v>1640.0000000000005</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="1"/>
-        <v>-6226.5999999999885</v>
+        <v>-3667.4999999999995</v>
       </c>
       <c r="I28" s="21">
         <f t="shared" si="2"/>
-        <v>-2314.5999999999813</v>
+        <v>-4873.6999999999643</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -3335,18 +3391,18 @@
       </c>
       <c r="F29" s="49">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G29" s="48">
         <v>1620.0000000000045</v>
       </c>
       <c r="H29" s="50">
         <f t="shared" si="1"/>
-        <v>-6259.1999999999816</v>
+        <v>-3700.0999999999931</v>
       </c>
       <c r="I29" s="51">
         <f t="shared" si="2"/>
-        <v>-8573.7999999999629</v>
+        <v>-8573.7999999999574</v>
       </c>
       <c r="J29" s="52">
         <f t="shared" si="3"/>
@@ -3404,18 +3460,18 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G30" s="44">
         <v>1379.9999999999955</v>
       </c>
       <c r="H30" s="45">
         <f t="shared" si="1"/>
-        <v>-6650.3999999999969</v>
+        <v>-4091.3000000000079</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="2"/>
-        <v>-15224.199999999961</v>
+        <v>-12665.099999999966</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
@@ -3473,18 +3529,18 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G31" s="12">
         <v>950.00000000000284</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="1"/>
-        <v>-7351.2999999999847</v>
+        <v>-4792.1999999999962</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="2"/>
-        <v>-22575.499999999945</v>
+        <v>-17457.299999999963</v>
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
@@ -3542,18 +3598,18 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G32" s="9">
         <v>670.00000000000171</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="1"/>
-        <v>-7807.6999999999862</v>
+        <v>-5248.5999999999985</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="2"/>
-        <v>-30383.199999999932</v>
+        <v>-22705.899999999961</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
@@ -3611,18 +3667,18 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G33" s="12">
         <v>319.99999999999318</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="1"/>
-        <v>-8378.2000000000007</v>
+        <v>-5819.1000000000113</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="2"/>
-        <v>-38761.399999999936</v>
+        <v>-28524.999999999971</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
@@ -3679,19 +3735,19 @@
         <v>73.27</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F66" si="10">$W$1</f>
-        <v>68.760000000000005</v>
+        <f t="shared" ref="F34:F67" si="10">$W$1</f>
+        <v>70.33</v>
       </c>
       <c r="G34" s="9">
         <v>-950.00000000000284</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="1"/>
-        <v>7351.2999999999847</v>
+        <v>4792.1999999999962</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="2"/>
-        <v>-31410.099999999951</v>
+        <v>-23732.799999999974</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
@@ -3749,18 +3805,18 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G35" s="12">
         <v>-969.99999999999886</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="1"/>
-        <v>7318.6999999999907</v>
+        <v>4759.6000000000031</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" ref="I35:I61" si="11">I34+H35</f>
-        <v>-24091.399999999961</v>
+        <v>-18973.199999999972</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
@@ -3818,18 +3874,18 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G36" s="9">
         <v>1819.9999999999932</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="1"/>
-        <v>-5933.2000000000007</v>
+        <v>-3374.1000000000117</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="11"/>
-        <v>-30024.599999999962</v>
+        <v>-22347.299999999985</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
@@ -3887,18 +3943,18 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G37" s="12">
         <v>2069.9999999999932</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="1"/>
-        <v>-5525.7000000000007</v>
+        <v>-2966.6000000000117</v>
       </c>
       <c r="I37" s="21">
         <f t="shared" si="11"/>
-        <v>-35550.299999999959</v>
+        <v>-25313.899999999998</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
@@ -3956,18 +4012,18 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G38" s="9">
         <v>-2829.9999999999982</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="1"/>
-        <v>4286.8999999999924</v>
+        <v>1727.8000000000036</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="11"/>
-        <v>-31263.399999999965</v>
+        <v>-23586.099999999995</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
@@ -4024,18 +4080,18 @@
       </c>
       <c r="F39" s="49">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G39" s="48">
         <v>-8039.9999999999782</v>
       </c>
       <c r="H39" s="50">
         <f t="shared" si="1"/>
-        <v>13594.200000000004</v>
+        <v>5916.9000000000378</v>
       </c>
       <c r="I39" s="51">
         <f t="shared" si="11"/>
-        <v>-17669.199999999961</v>
+        <v>-17669.199999999957</v>
       </c>
       <c r="J39" s="52">
         <f t="shared" si="3"/>
@@ -4092,18 +4148,18 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G40" s="44">
         <v>-980.00000000000398</v>
       </c>
       <c r="H40" s="45">
         <f t="shared" si="1"/>
-        <v>7302.3999999999833</v>
+        <v>4743.2999999999938</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="11"/>
-        <v>-10366.799999999977</v>
+        <v>-12925.899999999963</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
@@ -4160,18 +4216,18 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G41" s="12">
         <v>-1069.9999999999932</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="1"/>
-        <v>7155.7000000000007</v>
+        <v>4596.6000000000113</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" si="11"/>
-        <v>-3211.0999999999767</v>
+        <v>-8329.299999999952</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
@@ -4228,18 +4284,18 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G42" s="9">
         <v>-620.00000000000455</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="1"/>
-        <v>7889.1999999999816</v>
+        <v>5330.0999999999931</v>
       </c>
       <c r="I42" s="21">
         <f t="shared" si="11"/>
-        <v>4678.1000000000049</v>
+        <v>-2999.1999999999589</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
@@ -4296,18 +4352,18 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G43" s="12">
         <v>1760.000000000005</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="1"/>
-        <v>-6030.9999999999809</v>
+        <v>-3471.8999999999924</v>
       </c>
       <c r="I43" s="21">
         <f t="shared" si="11"/>
-        <v>-1352.899999999976</v>
+        <v>-6471.0999999999513</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
@@ -4364,18 +4420,18 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G44" s="9">
         <v>2480.0000000000041</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="1"/>
-        <v>-4857.3999999999833</v>
+        <v>-2298.2999999999943</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="11"/>
-        <v>-6210.2999999999593</v>
+        <v>-8769.3999999999451</v>
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
@@ -4432,18 +4488,18 @@
       </c>
       <c r="F45" s="49">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G45" s="48">
         <v>3120.0000000000045</v>
       </c>
       <c r="H45" s="50">
         <f t="shared" si="1"/>
-        <v>-3814.1999999999821</v>
+        <v>-1255.0999999999935</v>
       </c>
       <c r="I45" s="51">
         <f t="shared" si="11"/>
-        <v>-10024.499999999942</v>
+        <v>-10024.499999999938</v>
       </c>
       <c r="J45" s="52">
         <f t="shared" si="3"/>
@@ -4500,18 +4556,18 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G46" s="44">
         <v>-2769.9999999999959</v>
       </c>
       <c r="H46" s="45">
         <f t="shared" si="1"/>
-        <v>4384.6999999999962</v>
+        <v>1825.6000000000072</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="11"/>
-        <v>-5639.7999999999456</v>
+        <v>-8198.8999999999305</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
@@ -4568,18 +4624,18 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G47" s="12">
         <v>-2000</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="1"/>
-        <v>5639.7999999999893</v>
+        <v>3080.7000000000007</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="11"/>
-        <v>4.3655745685100555E-11</v>
+        <v>-5118.1999999999298</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
@@ -4636,18 +4692,18 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G48" s="9">
         <v>1939.9999999999977</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" si="1"/>
-        <v>-5737.5999999999931</v>
+        <v>-3178.5000000000041</v>
       </c>
       <c r="I48" s="21">
         <f t="shared" si="11"/>
-        <v>-5737.5999999999494</v>
+        <v>-8296.6999999999334</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
@@ -4704,18 +4760,18 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G49" s="12">
         <v>-1989.999999999995</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="1"/>
-        <v>5656.0999999999985</v>
+        <v>3097.0000000000091</v>
       </c>
       <c r="I49" s="21">
         <f t="shared" si="11"/>
-        <v>-81.499999999950887</v>
+        <v>-5199.6999999999243</v>
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
@@ -4772,18 +4828,18 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G50" s="9">
         <v>-2989.999999999995</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" si="1"/>
-        <v>4026.0999999999981</v>
+        <v>1467.0000000000091</v>
       </c>
       <c r="I50" s="21">
         <f t="shared" si="11"/>
-        <v>3944.6000000000472</v>
+        <v>-3732.6999999999152</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
@@ -4840,18 +4896,18 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G51" s="12">
         <v>-3329.9999999999982</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" si="1"/>
-        <v>3471.8999999999924</v>
+        <v>912.80000000000359</v>
       </c>
       <c r="I51" s="21">
         <f t="shared" si="11"/>
-        <v>7416.50000000004</v>
+        <v>-2819.8999999999114</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
@@ -4908,18 +4964,18 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G52" s="9">
         <v>-479.99999999998977</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" si="1"/>
-        <v>-18581.999999999964</v>
+        <v>-13463.799999999985</v>
       </c>
       <c r="I52" s="21">
         <f t="shared" si="11"/>
-        <v>-11165.499999999924</v>
+        <v>-16283.699999999895</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
@@ -4976,18 +5032,18 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G53" s="12">
         <v>-1629.9999999999955</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" si="1"/>
-        <v>6242.8999999999969</v>
+        <v>3683.8000000000079</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="11"/>
-        <v>-4922.5999999999267</v>
+        <v>-12599.899999999887</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
@@ -5044,18 +5100,18 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G54" s="9">
         <v>-1640.0000000000005</v>
       </c>
       <c r="H54" s="10">
         <f t="shared" si="1"/>
-        <v>6226.5999999999885</v>
+        <v>3667.4999999999995</v>
       </c>
       <c r="I54" s="21">
         <f t="shared" si="11"/>
-        <v>1304.0000000000618</v>
+        <v>-8932.3999999998869</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
@@ -5112,18 +5168,18 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G55" s="12">
         <v>3429.9999999999927</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" si="1"/>
-        <v>-3308.9000000000015</v>
+        <v>-749.80000000001291</v>
       </c>
       <c r="I55" s="21">
         <f t="shared" si="11"/>
-        <v>-2004.8999999999396</v>
+        <v>-9682.1999999998989</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
@@ -5180,18 +5236,18 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G56" s="9">
         <v>3079.9999999999982</v>
       </c>
       <c r="H56" s="10">
         <f t="shared" si="1"/>
-        <v>-3879.3999999999924</v>
+        <v>-1320.3000000000036</v>
       </c>
       <c r="I56" s="21">
         <f t="shared" si="11"/>
-        <v>-5884.299999999932</v>
+        <v>-11002.499999999902</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
@@ -5248,18 +5304,18 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G57" s="12">
         <v>-3219.9999999999991</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" si="1"/>
-        <v>3651.1999999999916</v>
+        <v>1092.1000000000026</v>
       </c>
       <c r="I57" s="21">
         <f t="shared" si="11"/>
-        <v>-2233.0999999999403</v>
+        <v>-9910.3999999998996</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
@@ -5316,18 +5372,18 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G58" s="9">
         <v>-3700.0000000000027</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="1"/>
-        <v>2868.7999999999852</v>
+        <v>309.69999999999629</v>
       </c>
       <c r="I58" s="21">
         <f t="shared" si="11"/>
-        <v>635.70000000004484</v>
+        <v>-9600.6999999999025</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
@@ -5384,18 +5440,18 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G59" s="12">
         <v>-4590.0000000000036</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" si="1"/>
-        <v>1418.0999999999842</v>
+        <v>-1141.0000000000045</v>
       </c>
       <c r="I59" s="21">
         <f t="shared" si="11"/>
-        <v>2053.8000000000293</v>
+        <v>-10741.699999999906</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
@@ -5452,18 +5508,18 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G60" s="9">
         <v>-5439.9999999999982</v>
       </c>
       <c r="H60" s="10">
         <f t="shared" si="1"/>
-        <v>32.599999999993514</v>
+        <v>-2526.4999999999955</v>
       </c>
       <c r="I60" s="21">
         <f t="shared" si="11"/>
-        <v>2086.4000000000228</v>
+        <v>-13268.199999999903</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
@@ -5520,18 +5576,18 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G61" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" si="1"/>
-        <v>3520.7999999999938</v>
+        <v>961.7000000000055</v>
       </c>
       <c r="I61" s="21">
         <f t="shared" si="11"/>
-        <v>5607.2000000000171</v>
+        <v>-12306.499999999896</v>
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
@@ -5588,18 +5644,18 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G62" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H62" s="10">
         <f>(F62-E62)*D62*1.63</f>
-        <v>-11817.5</v>
+        <v>-9258.4000000000106</v>
       </c>
       <c r="I62" s="21">
         <f>I61+H62</f>
-        <v>-6210.2999999999829</v>
+        <v>-21564.899999999907</v>
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
@@ -5657,18 +5713,18 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G63" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H63" s="10">
         <f>(F63-E63)*D63*1.63</f>
-        <v>-11833.799999999985</v>
+        <v>-9274.6999999999971</v>
       </c>
       <c r="I63" s="21">
         <f>I62+H63</f>
-        <v>-18044.099999999969</v>
+        <v>-30839.599999999904</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
@@ -5726,18 +5782,18 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G64" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H64" s="10">
         <f>(F64-E64)*D64*1.63</f>
-        <v>-11540.399999999996</v>
+        <v>-8981.3000000000084</v>
       </c>
       <c r="I64" s="21">
         <f>I63+H64</f>
-        <v>-29584.499999999964</v>
+        <v>-39820.899999999914</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
@@ -5795,18 +5851,18 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G65" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H65" s="10">
         <f>(F65-E65)*D65*1.63</f>
-        <v>8264.0999999999876</v>
+        <v>5705</v>
       </c>
       <c r="I65" s="21">
         <f>I64+H65</f>
-        <v>-21320.399999999976</v>
+        <v>-34115.899999999914</v>
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
@@ -5863,18 +5919,18 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="10"/>
-        <v>68.760000000000005</v>
+        <v>70.33</v>
       </c>
       <c r="G66" s="15">
         <v>-3299.9999999999973</v>
       </c>
       <c r="H66" s="10">
         <f>(F66-E66)*D66*1.63</f>
-        <v>4515.0999999999931</v>
+        <v>1956.0000000000043</v>
       </c>
       <c r="I66" s="21">
         <f>I65+H66</f>
-        <v>-16805.299999999981</v>
+        <v>-32159.899999999911</v>
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
@@ -5913,14 +5969,92 @@
         <v>73.875</v>
       </c>
     </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="37">
+        <v>45462</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E67" s="15">
+        <v>69.16</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="10"/>
+        <v>70.33</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-3299.9999999999973</v>
+      </c>
+      <c r="H67" s="10">
+        <f>(F67-E67)*D67*1.63</f>
+        <v>9535.5000000000127</v>
+      </c>
+      <c r="I67" s="21">
+        <f>I66+H67</f>
+        <v>-22624.3999999999</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67" si="12">J66+D67</f>
+        <v>-1000</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="33">
+        <f t="shared" ref="N67" si="13">N66+L67</f>
+        <v>-14000</v>
+      </c>
+      <c r="O67" s="58">
+        <f>SUMPRODUCT(L$46:L67,M$46:M67)/N67</f>
+        <v>71.385714285714286</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+      <c r="R67" s="1">
+        <f t="shared" si="7"/>
+        <v>69.16</v>
+      </c>
+      <c r="S67" s="33">
+        <f t="shared" ref="S67" si="14">S66+Q67</f>
+        <v>13000</v>
+      </c>
+      <c r="T67" s="58">
+        <f>SUMPRODUCT(Q$46:Q67,R$46:R67)/S67</f>
+        <v>72.061538461538461</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H66">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J66">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="J2:J67">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:H67">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I67">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5937,10 +6071,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483F930B-A90B-4DE2-AD39-B6A527EDDD6D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5986,7 +6120,7 @@
       </c>
       <c r="M1" s="34" cm="1">
         <f t="array" ref="M1">_xll.BDP(U2,"LAST_PRICE")</f>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="U1" t="s">
         <v>21</v>
@@ -6187,16 +6321,16 @@
         <v>37.99</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" ref="F8:F58" si="1">$M$1</f>
-        <v>50.03</v>
+        <f t="shared" ref="F8:F59" si="1">$M$1</f>
+        <v>49.37</v>
       </c>
       <c r="G8" s="26">
         <f t="shared" si="0"/>
-        <v>114379.99999999999</v>
+        <v>108109.99999999996</v>
       </c>
       <c r="H8" s="27">
         <f>G8</f>
-        <v>114379.99999999999</v>
+        <v>108109.99999999996</v>
       </c>
       <c r="I8">
         <f>D8</f>
@@ -6221,15 +6355,15 @@
       </c>
       <c r="F9" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G9" s="26">
         <f t="shared" si="0"/>
-        <v>113335</v>
+        <v>107064.99999999996</v>
       </c>
       <c r="H9" s="27">
         <f>H8+G9</f>
-        <v>227715</v>
+        <v>215174.99999999991</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I55" si="2">I8+D9</f>
@@ -6254,15 +6388,15 @@
       </c>
       <c r="F10" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G10" s="26">
         <f t="shared" si="0"/>
-        <v>-119035.00000000001</v>
+        <v>-112764.99999999997</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" ref="H10:H28" si="3">H9+G10</f>
-        <v>108679.99999999999</v>
+        <v>102409.99999999994</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -6287,15 +6421,15 @@
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G11" s="26">
         <f t="shared" si="0"/>
-        <v>-48678.000000000007</v>
+        <v>-46169.999999999993</v>
       </c>
       <c r="H11" s="27">
         <f t="shared" si="3"/>
-        <v>60001.999999999978</v>
+        <v>56239.999999999949</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -6320,15 +6454,15 @@
       </c>
       <c r="F12" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G12" s="26">
         <f t="shared" si="0"/>
-        <v>-22724</v>
+        <v>-21469.999999999993</v>
       </c>
       <c r="H12" s="27">
         <f t="shared" si="3"/>
-        <v>37277.999999999978</v>
+        <v>34769.999999999956</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -6353,15 +6487,15 @@
       </c>
       <c r="F13" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="0"/>
-        <v>-22591</v>
+        <v>-21336.999999999993</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="3"/>
-        <v>14686.999999999978</v>
+        <v>13432.999999999964</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
@@ -6392,15 +6526,15 @@
       </c>
       <c r="F14" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G14" s="26">
         <f t="shared" si="0"/>
-        <v>-22515.000000000004</v>
+        <v>-21260.999999999996</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="3"/>
-        <v>-7828.0000000000255</v>
+        <v>-7828.0000000000327</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
@@ -6457,15 +6591,15 @@
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G15" s="26">
         <f t="shared" si="0"/>
-        <v>-44840.000000000015</v>
+        <v>-42332</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="3"/>
-        <v>-52668.000000000044</v>
+        <v>-50160.000000000029</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
@@ -6522,15 +6656,15 @@
       </c>
       <c r="F16" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G16" s="26">
         <f t="shared" si="0"/>
-        <v>-44003.999999999993</v>
+        <v>-41495.999999999978</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="3"/>
-        <v>-96672.000000000029</v>
+        <v>-91656</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -6587,15 +6721,15 @@
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="0"/>
-        <v>-45942.000000000015</v>
+        <v>-43434</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" si="3"/>
-        <v>-142614.00000000006</v>
+        <v>-135090</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -6652,15 +6786,15 @@
       </c>
       <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="0"/>
-        <v>24282.000000000004</v>
+        <v>23027.999999999996</v>
       </c>
       <c r="H18" s="27">
         <f t="shared" si="3"/>
-        <v>-118332.00000000006</v>
+        <v>-112062</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -6717,15 +6851,15 @@
       </c>
       <c r="F19" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G19" s="26">
         <f t="shared" si="0"/>
-        <v>24567</v>
+        <v>23312.999999999993</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="3"/>
-        <v>-93765.000000000058</v>
+        <v>-88749</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
@@ -6782,15 +6916,15 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G20" s="26">
         <f t="shared" si="0"/>
-        <v>-47614.000000000007</v>
+        <v>-45105.999999999993</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="3"/>
-        <v>-141379.00000000006</v>
+        <v>-133855</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
@@ -6847,15 +6981,15 @@
       </c>
       <c r="F21" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G21" s="26">
         <f t="shared" si="0"/>
-        <v>-23426.999999999996</v>
+        <v>-22172.999999999989</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="3"/>
-        <v>-164806.00000000006</v>
+        <v>-156028</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
@@ -6912,15 +7046,15 @@
       </c>
       <c r="F22" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G22" s="26">
         <f t="shared" si="0"/>
-        <v>24282.000000000004</v>
+        <v>23027.999999999996</v>
       </c>
       <c r="H22" s="27">
         <f t="shared" si="3"/>
-        <v>-140524.00000000006</v>
+        <v>-133000</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
@@ -6977,15 +7111,15 @@
       </c>
       <c r="F23" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G23" s="26">
         <f t="shared" si="0"/>
-        <v>24567</v>
+        <v>23312.999999999993</v>
       </c>
       <c r="H23" s="27">
         <f t="shared" si="3"/>
-        <v>-115957.00000000006</v>
+        <v>-109687</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
@@ -7042,15 +7176,15 @@
       </c>
       <c r="F24" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G24" s="26">
         <f t="shared" si="0"/>
-        <v>-22876</v>
+        <v>-21621.999999999993</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="3"/>
-        <v>-138833.00000000006</v>
+        <v>-131309</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
@@ -7107,15 +7241,15 @@
       </c>
       <c r="F25" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G25" s="26">
         <f t="shared" si="0"/>
-        <v>-22420.000000000007</v>
+        <v>-21166</v>
       </c>
       <c r="H25" s="27">
         <f t="shared" si="3"/>
-        <v>-161253.00000000006</v>
+        <v>-152475</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
@@ -7172,15 +7306,15 @@
       </c>
       <c r="F26" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G26" s="26">
         <f t="shared" si="0"/>
-        <v>-44232</v>
+        <v>-41723.999999999985</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="3"/>
-        <v>-205485.00000000006</v>
+        <v>-194199</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -7237,15 +7371,15 @@
       </c>
       <c r="F27" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G27" s="26">
         <f t="shared" si="0"/>
-        <v>-39444.000000000007</v>
+        <v>-36935.999999999993</v>
       </c>
       <c r="H27" s="27">
         <f t="shared" si="3"/>
-        <v>-244929.00000000006</v>
+        <v>-231135</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
@@ -7302,15 +7436,15 @@
       </c>
       <c r="F28" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G28" s="26">
         <f t="shared" si="0"/>
-        <v>-20197.000000000004</v>
+        <v>-18942.999999999996</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="3"/>
-        <v>-265126.00000000006</v>
+        <v>-250078</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
@@ -7367,15 +7501,15 @@
       </c>
       <c r="F29" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G29" s="26">
         <f t="shared" si="0"/>
-        <v>-14478.000000000007</v>
+        <v>-13224.000000000002</v>
       </c>
       <c r="H29" s="27">
         <f t="shared" ref="H29:H47" si="4">H28+G29</f>
-        <v>-279604.00000000006</v>
+        <v>-263302</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
@@ -7432,15 +7566,15 @@
       </c>
       <c r="F30" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G30" s="26">
         <f t="shared" si="0"/>
-        <v>-14231.000000000004</v>
+        <v>-12976.999999999996</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="4"/>
-        <v>-293835.00000000006</v>
+        <v>-276279</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
@@ -7497,15 +7631,15 @@
       </c>
       <c r="F31" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G31" s="26">
         <f t="shared" si="0"/>
-        <v>-14534.999999999996</v>
+        <v>-13280.999999999989</v>
       </c>
       <c r="H31" s="27">
         <f t="shared" si="4"/>
-        <v>-308370.00000000006</v>
+        <v>-289560</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
@@ -7562,15 +7696,15 @@
       </c>
       <c r="F32" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G32" s="26">
         <f t="shared" si="0"/>
-        <v>-27892.000000000011</v>
+        <v>-25384</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="4"/>
-        <v>-336262.00000000006</v>
+        <v>-314944</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -7627,15 +7761,15 @@
       </c>
       <c r="F33" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G33" s="26">
         <f t="shared" si="0"/>
-        <v>23103.999999999993</v>
+        <v>20595.999999999978</v>
       </c>
       <c r="H33" s="27">
         <f t="shared" si="4"/>
-        <v>-313158.00000000006</v>
+        <v>-294348</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
@@ -7694,15 +7828,15 @@
       </c>
       <c r="F34" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G34" s="26">
         <f t="shared" ref="G34:G55" si="5">(F34-E34)*D34*$V$1</f>
-        <v>11913.000000000005</v>
+        <v>10658.999999999998</v>
       </c>
       <c r="H34" s="27">
         <f t="shared" si="4"/>
-        <v>-301245.00000000006</v>
+        <v>-283689</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
@@ -7761,15 +7895,15 @@
       </c>
       <c r="F35" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G35" s="26">
         <f t="shared" si="5"/>
-        <v>10887.000000000007</v>
+        <v>9633</v>
       </c>
       <c r="H35" s="27">
         <f t="shared" si="4"/>
-        <v>-290358.00000000006</v>
+        <v>-274056</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
@@ -7828,15 +7962,15 @@
       </c>
       <c r="F36" s="25">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G36" s="26">
         <f t="shared" si="5"/>
-        <v>-10222.000000000005</v>
+        <v>-8967.9999999999982</v>
       </c>
       <c r="H36" s="27">
         <f t="shared" si="4"/>
-        <v>-300580.00000000006</v>
+        <v>-283024</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
@@ -7893,15 +8027,15 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G37" s="36">
         <f t="shared" si="5"/>
-        <v>-10222.000000000005</v>
+        <v>-8967.9999999999982</v>
       </c>
       <c r="H37" s="27">
         <f t="shared" si="4"/>
-        <v>-310802.00000000006</v>
+        <v>-291992</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
@@ -7958,15 +8092,15 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G38" s="26">
         <f t="shared" si="5"/>
-        <v>-10203.000000000007</v>
+        <v>-8949.0000000000018</v>
       </c>
       <c r="H38" s="27">
         <f t="shared" si="4"/>
-        <v>-321005.00000000006</v>
+        <v>-300941</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
@@ -8024,15 +8158,15 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G39" s="36">
         <f t="shared" si="5"/>
-        <v>-10298.000000000004</v>
+        <v>-9043.9999999999964</v>
       </c>
       <c r="H39" s="27">
         <f t="shared" si="4"/>
-        <v>-331303.00000000006</v>
+        <v>-309985</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
@@ -8089,15 +8223,15 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G40" s="36">
         <f t="shared" si="5"/>
-        <v>-20101.999999999996</v>
+        <v>-17593.999999999982</v>
       </c>
       <c r="H40" s="27">
         <f t="shared" si="4"/>
-        <v>-351405.00000000006</v>
+        <v>-327579</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
@@ -8154,15 +8288,15 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G41" s="26">
         <f t="shared" si="5"/>
-        <v>15769.999999999993</v>
+        <v>13261.99999999998</v>
       </c>
       <c r="H41" s="27">
         <f t="shared" si="4"/>
-        <v>-335635.00000000006</v>
+        <v>-314317</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
@@ -8219,15 +8353,15 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G42" s="26">
         <f t="shared" si="5"/>
-        <v>7409.9999999999973</v>
+        <v>6155.99999999999</v>
       </c>
       <c r="H42" s="27">
         <f t="shared" si="4"/>
-        <v>-328225.00000000006</v>
+        <v>-308161</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
@@ -8284,15 +8418,15 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G43" s="26">
         <f t="shared" si="5"/>
-        <v>13983.999999999998</v>
+        <v>11475.999999999984</v>
       </c>
       <c r="H43" s="27">
         <f t="shared" si="4"/>
-        <v>-314241.00000000006</v>
+        <v>-296685</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
@@ -8349,15 +8483,15 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G44" s="26">
         <f t="shared" si="5"/>
-        <v>6422.0000000000045</v>
+        <v>5167.9999999999982</v>
       </c>
       <c r="H44" s="27">
         <f t="shared" si="4"/>
-        <v>-307819.00000000006</v>
+        <v>-291517</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
@@ -8414,15 +8548,15 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G45" s="26">
         <f t="shared" si="5"/>
-        <v>14933.999999999998</v>
+        <v>12425.999999999984</v>
       </c>
       <c r="H45" s="27">
         <f t="shared" si="4"/>
-        <v>-292885.00000000006</v>
+        <v>-279091</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
@@ -8479,15 +8613,15 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G46" s="26">
         <f t="shared" si="5"/>
-        <v>6858.9999999999991</v>
+        <v>5604.9999999999918</v>
       </c>
       <c r="H46" s="27">
         <f t="shared" si="4"/>
-        <v>-286026.00000000006</v>
+        <v>-273486</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
@@ -8544,15 +8678,15 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G47" s="26">
         <f t="shared" si="5"/>
-        <v>12767.999999999998</v>
+        <v>10259.999999999984</v>
       </c>
       <c r="H47" s="27">
         <f t="shared" si="4"/>
-        <v>-273258.00000000006</v>
+        <v>-263226</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
@@ -8609,15 +8743,15 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G48" s="26">
         <f t="shared" si="5"/>
-        <v>1291.9999999999995</v>
+        <v>37.99999999999244</v>
       </c>
       <c r="H48" s="27">
         <f t="shared" ref="H48:H53" si="6">H47+G48</f>
-        <v>-271966.00000000006</v>
+        <v>-263188</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
@@ -8674,15 +8808,15 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G49" s="26">
         <f t="shared" si="5"/>
-        <v>532.00000000000216</v>
+        <v>-722.00000000000477</v>
       </c>
       <c r="H49" s="27">
         <f t="shared" si="6"/>
-        <v>-271434.00000000006</v>
+        <v>-263910</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
@@ -8739,15 +8873,15 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G50" s="26">
         <f t="shared" si="5"/>
-        <v>-2470.0000000000082</v>
+        <v>-1216.0000000000009</v>
       </c>
       <c r="H50" s="27">
         <f t="shared" si="6"/>
-        <v>-273904.00000000006</v>
+        <v>-265126</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
@@ -8804,15 +8938,15 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G51" s="26">
         <f t="shared" si="5"/>
-        <v>-3420.0000000000082</v>
+        <v>-2166.0000000000009</v>
       </c>
       <c r="H51" s="27">
         <f t="shared" si="6"/>
-        <v>-277324.00000000006</v>
+        <v>-267292</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
@@ -8869,15 +9003,15 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G52" s="26">
         <f t="shared" si="5"/>
-        <v>-9956.0000000000164</v>
+        <v>-7448.0000000000027</v>
       </c>
       <c r="H52" s="27">
         <f t="shared" si="6"/>
-        <v>-287280.00000000006</v>
+        <v>-274740</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
@@ -8934,15 +9068,15 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G53" s="36">
         <f t="shared" si="5"/>
-        <v>-5453.0000000000082</v>
+        <v>-4199.0000000000018</v>
       </c>
       <c r="H53" s="27">
         <f t="shared" si="6"/>
-        <v>-292733.00000000006</v>
+        <v>-278939</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
@@ -8999,15 +9133,15 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G54" s="36">
         <f t="shared" si="5"/>
-        <v>-6060.9999999999955</v>
+        <v>-4806.9999999999882</v>
       </c>
       <c r="H54" s="27">
         <f>H53+G54</f>
-        <v>-298794.00000000006</v>
+        <v>-283746</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
@@ -9064,15 +9198,15 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G55" s="36">
         <f t="shared" si="5"/>
-        <v>-7010.9999999999955</v>
+        <v>-5756.9999999999882</v>
       </c>
       <c r="H55" s="27">
         <f>H54+G55</f>
-        <v>-305805.00000000006</v>
+        <v>-289503</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
@@ -9129,15 +9263,15 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G56" s="26">
         <f t="shared" ref="G56:G58" si="7">(F56-E56)*D56*$V$1</f>
-        <v>2337.0000000000077</v>
+        <v>1083.0000000000005</v>
       </c>
       <c r="H56" s="27">
         <f t="shared" ref="H56:H58" si="8">H55+G56</f>
-        <v>-303468.00000000006</v>
+        <v>-288420</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56:I58" si="9">I55+D56</f>
@@ -9194,15 +9328,15 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G57" s="26">
         <f t="shared" si="7"/>
-        <v>2489.0000000000041</v>
+        <v>1234.9999999999973</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="8"/>
-        <v>-300979.00000000006</v>
+        <v>-287185</v>
       </c>
       <c r="I57">
         <f t="shared" si="9"/>
@@ -9259,15 +9393,15 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="1"/>
-        <v>50.03</v>
+        <v>49.37</v>
       </c>
       <c r="G58" s="36">
         <f t="shared" si="7"/>
-        <v>1576.9999999999966</v>
+        <v>322.99999999998971</v>
       </c>
       <c r="H58" s="27">
         <f t="shared" si="8"/>
-        <v>-299402.00000000006</v>
+        <v>-286862</v>
       </c>
       <c r="I58">
         <f t="shared" si="9"/>
@@ -9306,22 +9440,87 @@
         <v>44.986666666666665</v>
       </c>
     </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="66">
+        <v>45462</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="35">
+        <v>50.09</v>
+      </c>
+      <c r="F59" s="35">
+        <f t="shared" si="1"/>
+        <v>49.37</v>
+      </c>
+      <c r="G59" s="36">
+        <f t="shared" ref="G59" si="10">(F59-E59)*D59*$V$1</f>
+        <v>-1368.0000000000111</v>
+      </c>
+      <c r="H59" s="27">
+        <f t="shared" ref="H59" si="11">H58+G59</f>
+        <v>-288230</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59" si="12">I58+D59</f>
+        <v>-9000</v>
+      </c>
+      <c r="K59">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Qty]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Sell",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="33">
+        <f>SUM($K$14:$K59)</f>
+        <v>-35000</v>
+      </c>
+      <c r="N59" s="1">
+        <f>SUMPRODUCT(K$15:K59,L$15:L59)/SUM(K$15:K59)</f>
+        <v>41.956470588235291</v>
+      </c>
+      <c r="P59">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Qty]],0)</f>
+        <v>1000</v>
+      </c>
+      <c r="Q59" s="1">
+        <f>IF(Table2[[#This Row],[Buy / Sell]]="Buy",Table2[[#This Row],[Trade Price]],0)</f>
+        <v>50.09</v>
+      </c>
+      <c r="R59" s="33">
+        <f>SUM($P$14:$P59)</f>
+        <v>25000</v>
+      </c>
+      <c r="S59" s="1">
+        <f>SUMPRODUCT(P$15:P59,Q$15:Q59)/SUM(P$15:P59)</f>
+        <v>45.190800000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C58">
-    <cfRule type="containsText" dxfId="9" priority="41" operator="containsText" text="Buy">
+  <conditionalFormatting sqref="C2:C59">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="Buy">
       <formula>NOT(ISERROR(SEARCH("Buy",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="42" operator="containsText" text="Sell">
+    <cfRule type="containsText" dxfId="18" priority="42" operator="containsText" text="Sell">
       <formula>NOT(ISERROR(SEARCH("Sell",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H58">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G2:H59">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H58">
-    <cfRule type="cellIs" dxfId="6" priority="149" operator="lessThan">
+  <conditionalFormatting sqref="H10:H59">
+    <cfRule type="cellIs" dxfId="16" priority="149" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9381,7 +9580,7 @@
       </c>
       <c r="N1" s="40">
         <f>[1]Daily_MTM!$J$60</f>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9402,18 +9601,18 @@
       </c>
       <c r="F2" s="9">
         <f>$N$1</f>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="G2" s="9">
         <v>1099.9999999999943</v>
       </c>
       <c r="H2" s="10">
         <f t="shared" ref="H2:H9" si="0">(F2-E2)*D2*1.5</f>
-        <v>-9240.0000000000164</v>
+        <v>-8789.9999999999982</v>
       </c>
       <c r="I2" s="20">
         <f>H2</f>
-        <v>-9240.0000000000164</v>
+        <v>-8789.9999999999982</v>
       </c>
       <c r="J2">
         <f>D2</f>
@@ -9438,18 +9637,18 @@
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:F9" si="1">$N$1</f>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="G3" s="12">
         <v>-243439790.16897666</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" si="0"/>
-        <v>-11190.000000000013</v>
+        <v>-10739.999999999995</v>
       </c>
       <c r="I3" s="20">
         <f t="shared" ref="I3:I9" si="2">I2+H3</f>
-        <v>-20430.000000000029</v>
+        <v>-19529.999999999993</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J9" si="3">J2+D3</f>
@@ -9474,18 +9673,18 @@
       </c>
       <c r="F4" s="9">
         <f t="shared" si="1"/>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="G4" s="9">
         <v>-243439490.16897666</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>-10740.000000000016</v>
+        <v>-10289.999999999998</v>
       </c>
       <c r="I4" s="20">
         <f t="shared" si="2"/>
-        <v>-31170.000000000044</v>
+        <v>-29819.999999999993</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
@@ -9510,18 +9709,18 @@
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="G5" s="12">
         <v>-121719545.08448833</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="0"/>
-        <v>-5070.0000000000036</v>
+        <v>-4844.9999999999955</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="2"/>
-        <v>-36240.000000000044</v>
+        <v>-34664.999999999985</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -9546,18 +9745,18 @@
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="G6" s="9">
         <v>-121719215.08448833</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="0"/>
-        <v>-4575.0000000000064</v>
+        <v>-4349.9999999999982</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="2"/>
-        <v>-40815.000000000051</v>
+        <v>-39014.999999999985</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -9586,18 +9785,18 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="G7" s="9">
         <v>-121719215.08448833</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>-10710.000000000011</v>
+        <v>-10034.999999999985</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="2"/>
-        <v>-51525.000000000058</v>
+        <v>-49049.999999999971</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -9626,15 +9825,15 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>-3210.0000000000009</v>
+        <v>-2984.9999999999927</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="2"/>
-        <v>-54735.000000000058</v>
+        <v>-52034.999999999964</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -9663,15 +9862,15 @@
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>36.369999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>-8505.0000000000036</v>
+        <v>-7829.9999999999764</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="2"/>
-        <v>-63240.000000000058</v>
+        <v>-59864.999999999942</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -9684,17 +9883,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:I7">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I9">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9997,7 +10196,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10595,7 +10794,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10766,7 +10965,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
